--- a/ExchangeWebServices/Docs/MS-OXWSSYNC/MS-OXWSSYNC_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSSYNC/MS-OXWSSYNC_RequirementSpecification.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7DEEC3-0512-49ED-8BF5-28612D044567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8F8543-168F-4D31-B4D2-3C5E3633B614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4451,7 +4451,81 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4771,110 +4845,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5004,7 +4974,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I394" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I394" tableType="xml" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" connectionId="1">
   <autoFilter ref="A19:I394" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters>
@@ -5013,31 +4983,31 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="28">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="27">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="26">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="11">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="25">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5046,12 +5016,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5347,8 +5317,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -5398,7 +5368,7 @@
         <v>26</v>
       </c>
       <c r="F3" s="31">
-        <v>45243</v>
+        <v>45706</v>
       </c>
       <c r="G3" s="32"/>
       <c r="I3" s="29"/>
@@ -15215,78 +15185,54 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A375:B375 A378:B378 A376:I377 D375:I375 A379:I394 D378:I378 I367:I394 A20:I374">
-    <cfRule type="expression" dxfId="36" priority="77">
+  <conditionalFormatting sqref="A20:I374 I367:I394 A375:B375 D375:I375 A376:I377 A378:B378 D378:I378 A379:I394">
+    <cfRule type="expression" dxfId="13" priority="31">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="32">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="33">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="78">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C375">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="85">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A375:B375 A378:B378 A376:I377 D375:I375 A379:I394 D378:I378 I367:I394 A20:I374">
-    <cfRule type="expression" dxfId="33" priority="31">
+  <conditionalFormatting sqref="C378">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F394">
-    <cfRule type="expression" dxfId="30" priority="37">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="0" priority="38">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C378">
-    <cfRule type="expression" dxfId="28" priority="10">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C378">
-    <cfRule type="expression" dxfId="25" priority="7">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="9">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C375">
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="5">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C375">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -15323,21 +15269,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -15386,29 +15317,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15423,6 +15347,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>

--- a/ExchangeWebServices/Docs/MS-OXWSSYNC/MS-OXWSSYNC_RequirementSpecification.xlsx
+++ b/ExchangeWebServices/Docs/MS-OXWSSYNC/MS-OXWSSYNC_RequirementSpecification.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7DEEC3-0512-49ED-8BF5-28612D044567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BAAC0-4C71-4E33-8BE7-B80623EA18B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -4036,14 +4036,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="0.0.0"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="177" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4290,7 +4290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4320,7 +4320,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4358,8 +4358,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4449,9 +4449,83 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4771,110 +4845,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5004,7 +4974,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I394" tableType="xml" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I394" tableType="xml" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" connectionId="1">
   <autoFilter ref="A19:I394" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="1">
       <filters>
@@ -5013,31 +4983,31 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="28">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="27">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="26">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="11">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="25">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="10">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="24">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="23">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -5046,12 +5016,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5347,21 +5317,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.6328125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.625" style="3" customWidth="1"/>
     <col min="10" max="10" width="9" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
@@ -5392,13 +5362,13 @@
         <v>25</v>
       </c>
       <c r="C3" s="30">
-        <v>9.1999999999999993</v>
+        <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="31">
-        <v>45243</v>
+        <v>45797</v>
       </c>
       <c r="G3" s="32"/>
       <c r="I3" s="29"/>
@@ -5634,7 +5604,7 @@
       <c r="H18" s="44"/>
       <c r="I18" s="45"/>
     </row>
-    <row r="19" spans="1:9" ht="29">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -5663,7 +5633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="15" customFormat="1" ht="58" hidden="1">
+    <row r="20" spans="1:9" s="15" customFormat="1" ht="60" hidden="1">
       <c r="A20" s="14" t="s">
         <v>40</v>
       </c>
@@ -5688,7 +5658,7 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" s="15" customFormat="1" ht="29" hidden="1">
+    <row r="21" spans="1:9" s="15" customFormat="1" ht="30" hidden="1">
       <c r="A21" s="14" t="s">
         <v>41</v>
       </c>
@@ -5713,7 +5683,7 @@
       </c>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" s="15" customFormat="1" ht="29" hidden="1">
+    <row r="22" spans="1:9" s="15" customFormat="1" ht="30" hidden="1">
       <c r="A22" s="14" t="s">
         <v>42</v>
       </c>
@@ -5738,7 +5708,7 @@
       </c>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" s="15" customFormat="1" ht="29" hidden="1">
+    <row r="23" spans="1:9" s="15" customFormat="1" hidden="1">
       <c r="A23" s="14" t="s">
         <v>43</v>
       </c>
@@ -5788,7 +5758,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9" s="15" customFormat="1" ht="29" hidden="1">
+    <row r="25" spans="1:9" s="15" customFormat="1" ht="30" hidden="1">
       <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
@@ -5813,7 +5783,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:9" s="15" customFormat="1" ht="43.5" hidden="1">
+    <row r="26" spans="1:9" s="15" customFormat="1" ht="45" hidden="1">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
@@ -5888,7 +5858,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="15" customFormat="1" ht="29" hidden="1">
+    <row r="29" spans="1:9" s="15" customFormat="1" hidden="1">
       <c r="A29" s="14" t="s">
         <v>49</v>
       </c>
@@ -5938,7 +5908,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="15" customFormat="1" ht="29" hidden="1">
+    <row r="31" spans="1:9" s="15" customFormat="1" ht="30" hidden="1">
       <c r="A31" s="14" t="s">
         <v>51</v>
       </c>
@@ -5965,7 +5935,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="15" customFormat="1" ht="29" hidden="1">
+    <row r="32" spans="1:9" s="15" customFormat="1" ht="30" hidden="1">
       <c r="A32" s="14" t="s">
         <v>52</v>
       </c>
@@ -5990,7 +5960,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" s="15" customFormat="1" ht="43.5" hidden="1">
+    <row r="33" spans="1:9" s="15" customFormat="1" ht="30" hidden="1">
       <c r="A33" s="14" t="s">
         <v>53</v>
       </c>
@@ -6015,7 +5985,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="43.5" hidden="1">
+    <row r="34" spans="1:9" ht="30" hidden="1">
       <c r="A34" s="21" t="s">
         <v>54</v>
       </c>
@@ -6040,7 +6010,7 @@
       </c>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="1:9" ht="58" hidden="1">
+    <row r="35" spans="1:9" ht="45" hidden="1">
       <c r="A35" s="21" t="s">
         <v>55</v>
       </c>
@@ -6065,7 +6035,7 @@
       </c>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="1:9" ht="29" hidden="1">
+    <row r="36" spans="1:9" ht="30" hidden="1">
       <c r="A36" s="21" t="s">
         <v>56</v>
       </c>
@@ -6090,7 +6060,7 @@
       </c>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="29" hidden="1">
+    <row r="37" spans="1:9" ht="30" hidden="1">
       <c r="A37" s="21" t="s">
         <v>57</v>
       </c>
@@ -6115,7 +6085,7 @@
       </c>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="29" hidden="1">
+    <row r="38" spans="1:9" ht="30" hidden="1">
       <c r="A38" s="21" t="s">
         <v>58</v>
       </c>
@@ -6140,7 +6110,7 @@
       </c>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" ht="29" hidden="1">
+    <row r="39" spans="1:9" ht="30" hidden="1">
       <c r="A39" s="21" t="s">
         <v>59</v>
       </c>
@@ -6165,7 +6135,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="29" hidden="1">
+    <row r="40" spans="1:9" ht="30" hidden="1">
       <c r="A40" s="21" t="s">
         <v>60</v>
       </c>
@@ -6190,7 +6160,7 @@
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="29" hidden="1">
+    <row r="41" spans="1:9" ht="30" hidden="1">
       <c r="A41" s="21" t="s">
         <v>61</v>
       </c>
@@ -6215,7 +6185,7 @@
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" ht="29" hidden="1">
+    <row r="42" spans="1:9" ht="30" hidden="1">
       <c r="A42" s="21" t="s">
         <v>62</v>
       </c>
@@ -6240,7 +6210,7 @@
       </c>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" ht="29" hidden="1">
+    <row r="43" spans="1:9" ht="30" hidden="1">
       <c r="A43" s="21" t="s">
         <v>63</v>
       </c>
@@ -6265,7 +6235,7 @@
       </c>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" ht="29" hidden="1">
+    <row r="44" spans="1:9" ht="30" hidden="1">
       <c r="A44" s="21" t="s">
         <v>64</v>
       </c>
@@ -6290,7 +6260,7 @@
       </c>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="1:9" ht="43.5" hidden="1">
+    <row r="45" spans="1:9" ht="45" hidden="1">
       <c r="A45" s="21" t="s">
         <v>65</v>
       </c>
@@ -6315,7 +6285,7 @@
       </c>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" ht="29" hidden="1">
+    <row r="46" spans="1:9" ht="30" hidden="1">
       <c r="A46" s="21" t="s">
         <v>66</v>
       </c>
@@ -6340,7 +6310,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" ht="29" hidden="1">
+    <row r="47" spans="1:9" ht="30" hidden="1">
       <c r="A47" s="21" t="s">
         <v>189</v>
       </c>
@@ -6365,7 +6335,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="29" hidden="1">
+    <row r="48" spans="1:9" ht="30" hidden="1">
       <c r="A48" s="21" t="s">
         <v>190</v>
       </c>
@@ -6390,7 +6360,7 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="1:9" ht="29" hidden="1">
+    <row r="49" spans="1:9" ht="30" hidden="1">
       <c r="A49" s="21" t="s">
         <v>191</v>
       </c>
@@ -6415,7 +6385,7 @@
       </c>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="29" hidden="1">
+    <row r="50" spans="1:9" ht="30" hidden="1">
       <c r="A50" s="21" t="s">
         <v>192</v>
       </c>
@@ -6440,7 +6410,7 @@
       </c>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="29" hidden="1">
+    <row r="51" spans="1:9" ht="30" hidden="1">
       <c r="A51" s="21" t="s">
         <v>193</v>
       </c>
@@ -6490,7 +6460,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" ht="29" hidden="1">
+    <row r="53" spans="1:9" ht="30" hidden="1">
       <c r="A53" s="21" t="s">
         <v>195</v>
       </c>
@@ -6515,7 +6485,7 @@
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" ht="43.5" hidden="1">
+    <row r="54" spans="1:9" ht="45" hidden="1">
       <c r="A54" s="21" t="s">
         <v>196</v>
       </c>
@@ -6540,7 +6510,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="29" hidden="1">
+    <row r="55" spans="1:9" ht="30" hidden="1">
       <c r="A55" s="21" t="s">
         <v>197</v>
       </c>
@@ -6565,7 +6535,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" ht="43.5" hidden="1">
+    <row r="56" spans="1:9" ht="45" hidden="1">
       <c r="A56" s="21" t="s">
         <v>198</v>
       </c>
@@ -6590,7 +6560,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="43.5" hidden="1">
+    <row r="57" spans="1:9" ht="30" hidden="1">
       <c r="A57" s="21" t="s">
         <v>199</v>
       </c>
@@ -6615,7 +6585,7 @@
       </c>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" ht="43.5" hidden="1">
+    <row r="58" spans="1:9" ht="45" hidden="1">
       <c r="A58" s="21" t="s">
         <v>200</v>
       </c>
@@ -6640,7 +6610,7 @@
       </c>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="58" hidden="1">
+    <row r="59" spans="1:9" ht="60" hidden="1">
       <c r="A59" s="21" t="s">
         <v>201</v>
       </c>
@@ -6665,7 +6635,7 @@
       </c>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="43.5" hidden="1">
+    <row r="60" spans="1:9" ht="45" hidden="1">
       <c r="A60" s="21" t="s">
         <v>202</v>
       </c>
@@ -6690,7 +6660,7 @@
       </c>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="58" hidden="1">
+    <row r="61" spans="1:9" ht="45" hidden="1">
       <c r="A61" s="21" t="s">
         <v>203</v>
       </c>
@@ -6715,7 +6685,7 @@
       </c>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="43.5" hidden="1">
+    <row r="62" spans="1:9" ht="45" hidden="1">
       <c r="A62" s="21" t="s">
         <v>204</v>
       </c>
@@ -6740,7 +6710,7 @@
       </c>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="29" hidden="1">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" s="21" t="s">
         <v>205</v>
       </c>
@@ -6765,7 +6735,7 @@
       </c>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" ht="58" hidden="1">
+    <row r="64" spans="1:9" ht="60" hidden="1">
       <c r="A64" s="21" t="s">
         <v>206</v>
       </c>
@@ -6790,7 +6760,7 @@
       </c>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="43.5" hidden="1">
+    <row r="65" spans="1:9" ht="45" hidden="1">
       <c r="A65" s="21" t="s">
         <v>207</v>
       </c>
@@ -6815,7 +6785,7 @@
       </c>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="43.5" hidden="1">
+    <row r="66" spans="1:9" ht="45" hidden="1">
       <c r="A66" s="21" t="s">
         <v>208</v>
       </c>
@@ -6840,7 +6810,7 @@
       </c>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" ht="43.5" hidden="1">
+    <row r="67" spans="1:9" ht="30" hidden="1">
       <c r="A67" s="21" t="s">
         <v>209</v>
       </c>
@@ -6865,7 +6835,7 @@
       </c>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="1:9" ht="29" hidden="1">
+    <row r="68" spans="1:9" ht="30" hidden="1">
       <c r="A68" s="21" t="s">
         <v>210</v>
       </c>
@@ -6890,7 +6860,7 @@
       </c>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" ht="29" hidden="1">
+    <row r="69" spans="1:9" ht="30" hidden="1">
       <c r="A69" s="21" t="s">
         <v>211</v>
       </c>
@@ -6915,7 +6885,7 @@
       </c>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="1:9" ht="29" hidden="1">
+    <row r="70" spans="1:9" ht="30" hidden="1">
       <c r="A70" s="21" t="s">
         <v>212</v>
       </c>
@@ -6940,7 +6910,7 @@
       </c>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" ht="87" hidden="1">
+    <row r="71" spans="1:9" ht="90" hidden="1">
       <c r="A71" s="21" t="s">
         <v>213</v>
       </c>
@@ -6965,7 +6935,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" ht="261" hidden="1">
+    <row r="72" spans="1:9" ht="255" hidden="1">
       <c r="A72" s="21" t="s">
         <v>214</v>
       </c>
@@ -6990,7 +6960,7 @@
       </c>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9" ht="43.5" hidden="1">
+    <row r="73" spans="1:9" ht="45" hidden="1">
       <c r="A73" s="21" t="s">
         <v>215</v>
       </c>
@@ -7015,7 +6985,7 @@
       </c>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" ht="29" hidden="1">
+    <row r="74" spans="1:9" ht="30" hidden="1">
       <c r="A74" s="21" t="s">
         <v>216</v>
       </c>
@@ -7040,7 +7010,7 @@
       </c>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" ht="29" hidden="1">
+    <row r="75" spans="1:9" ht="30" hidden="1">
       <c r="A75" s="21" t="s">
         <v>217</v>
       </c>
@@ -7065,7 +7035,7 @@
       </c>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="1:9" ht="43.5" hidden="1">
+    <row r="76" spans="1:9" ht="30" hidden="1">
       <c r="A76" s="21" t="s">
         <v>218</v>
       </c>
@@ -7090,7 +7060,7 @@
       </c>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="1:9" ht="29" hidden="1">
+    <row r="77" spans="1:9" ht="30" hidden="1">
       <c r="A77" s="21" t="s">
         <v>219</v>
       </c>
@@ -7115,7 +7085,7 @@
       </c>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9" ht="29" hidden="1">
+    <row r="78" spans="1:9" ht="30" hidden="1">
       <c r="A78" s="21" t="s">
         <v>220</v>
       </c>
@@ -7140,7 +7110,7 @@
       </c>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" ht="116" hidden="1">
+    <row r="79" spans="1:9" ht="120" hidden="1">
       <c r="A79" s="21" t="s">
         <v>221</v>
       </c>
@@ -7165,7 +7135,7 @@
       </c>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" ht="43.5" hidden="1">
+    <row r="80" spans="1:9" ht="45" hidden="1">
       <c r="A80" s="21" t="s">
         <v>222</v>
       </c>
@@ -7190,7 +7160,7 @@
       </c>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" ht="43.5" hidden="1">
+    <row r="81" spans="1:9" ht="45" hidden="1">
       <c r="A81" s="21" t="s">
         <v>223</v>
       </c>
@@ -7215,7 +7185,7 @@
       </c>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="1:9" ht="29" hidden="1">
+    <row r="82" spans="1:9" ht="30" hidden="1">
       <c r="A82" s="21" t="s">
         <v>224</v>
       </c>
@@ -7240,7 +7210,7 @@
       </c>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" ht="29" hidden="1">
+    <row r="83" spans="1:9" ht="30" hidden="1">
       <c r="A83" s="21" t="s">
         <v>225</v>
       </c>
@@ -7265,7 +7235,7 @@
       </c>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" ht="29" hidden="1">
+    <row r="84" spans="1:9" ht="30" hidden="1">
       <c r="A84" s="21" t="s">
         <v>226</v>
       </c>
@@ -7290,7 +7260,7 @@
       </c>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" ht="29" hidden="1">
+    <row r="85" spans="1:9" ht="30" hidden="1">
       <c r="A85" s="21" t="s">
         <v>227</v>
       </c>
@@ -7315,7 +7285,7 @@
       </c>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="1:9" ht="29" hidden="1">
+    <row r="86" spans="1:9" ht="30" hidden="1">
       <c r="A86" s="21" t="s">
         <v>228</v>
       </c>
@@ -7340,7 +7310,7 @@
       </c>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" ht="29" hidden="1">
+    <row r="87" spans="1:9" ht="30" hidden="1">
       <c r="A87" s="21" t="s">
         <v>229</v>
       </c>
@@ -7365,7 +7335,7 @@
       </c>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" ht="29" hidden="1">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" s="21" t="s">
         <v>230</v>
       </c>
@@ -7390,7 +7360,7 @@
       </c>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" ht="29" hidden="1">
+    <row r="89" spans="1:9" ht="30" hidden="1">
       <c r="A89" s="21" t="s">
         <v>231</v>
       </c>
@@ -7415,7 +7385,7 @@
       </c>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" ht="29" hidden="1">
+    <row r="90" spans="1:9" ht="30" hidden="1">
       <c r="A90" s="21" t="s">
         <v>232</v>
       </c>
@@ -7440,7 +7410,7 @@
       </c>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" spans="1:9" ht="101.5" hidden="1">
+    <row r="91" spans="1:9" ht="90" hidden="1">
       <c r="A91" s="21" t="s">
         <v>233</v>
       </c>
@@ -7465,7 +7435,7 @@
       </c>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="1:9" ht="43.5" hidden="1">
+    <row r="92" spans="1:9" ht="45" hidden="1">
       <c r="A92" s="21" t="s">
         <v>234</v>
       </c>
@@ -7490,7 +7460,7 @@
       </c>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="1:9" ht="43.5" hidden="1">
+    <row r="93" spans="1:9" ht="45" hidden="1">
       <c r="A93" s="21" t="s">
         <v>235</v>
       </c>
@@ -7515,7 +7485,7 @@
       </c>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="1:9" ht="29" hidden="1">
+    <row r="94" spans="1:9" ht="30" hidden="1">
       <c r="A94" s="21" t="s">
         <v>236</v>
       </c>
@@ -7540,7 +7510,7 @@
       </c>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="1:9" ht="29" hidden="1">
+    <row r="95" spans="1:9" ht="30" hidden="1">
       <c r="A95" s="21" t="s">
         <v>237</v>
       </c>
@@ -7565,7 +7535,7 @@
       </c>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" ht="29" hidden="1">
+    <row r="96" spans="1:9" ht="30" hidden="1">
       <c r="A96" s="21" t="s">
         <v>238</v>
       </c>
@@ -7590,7 +7560,7 @@
       </c>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" ht="29" hidden="1">
+    <row r="97" spans="1:9" ht="30" hidden="1">
       <c r="A97" s="21" t="s">
         <v>239</v>
       </c>
@@ -7615,7 +7585,7 @@
       </c>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="1:9" ht="43.5" hidden="1">
+    <row r="98" spans="1:9" ht="30" hidden="1">
       <c r="A98" s="21" t="s">
         <v>240</v>
       </c>
@@ -7640,7 +7610,7 @@
       </c>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" ht="29" hidden="1">
+    <row r="99" spans="1:9" ht="30" hidden="1">
       <c r="A99" s="21" t="s">
         <v>241</v>
       </c>
@@ -7665,7 +7635,7 @@
       </c>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" ht="29" hidden="1">
+    <row r="100" spans="1:9" ht="30" hidden="1">
       <c r="A100" s="21" t="s">
         <v>242</v>
       </c>
@@ -7690,7 +7660,7 @@
       </c>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" ht="58" hidden="1">
+    <row r="101" spans="1:9" ht="60" hidden="1">
       <c r="A101" s="21" t="s">
         <v>243</v>
       </c>
@@ -7715,7 +7685,7 @@
       </c>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" ht="72.5" hidden="1">
+    <row r="102" spans="1:9" ht="75" hidden="1">
       <c r="A102" s="21" t="s">
         <v>244</v>
       </c>
@@ -7740,7 +7710,7 @@
       </c>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" ht="72.5" hidden="1">
+    <row r="103" spans="1:9" ht="60" hidden="1">
       <c r="A103" s="21" t="s">
         <v>245</v>
       </c>
@@ -7765,7 +7735,7 @@
       </c>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" ht="43.5" hidden="1">
+    <row r="104" spans="1:9" ht="30" hidden="1">
       <c r="A104" s="21" t="s">
         <v>67</v>
       </c>
@@ -7790,7 +7760,7 @@
       </c>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="1:9" ht="29" hidden="1">
+    <row r="105" spans="1:9" ht="30" hidden="1">
       <c r="A105" s="21" t="s">
         <v>68</v>
       </c>
@@ -7815,7 +7785,7 @@
       </c>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="1:9" ht="29" hidden="1">
+    <row r="106" spans="1:9" ht="30" hidden="1">
       <c r="A106" s="21" t="s">
         <v>69</v>
       </c>
@@ -7840,7 +7810,7 @@
       </c>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="1:9" ht="29" hidden="1">
+    <row r="107" spans="1:9" ht="30" hidden="1">
       <c r="A107" s="21" t="s">
         <v>70</v>
       </c>
@@ -7865,7 +7835,7 @@
       </c>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="1:9" ht="29" hidden="1">
+    <row r="108" spans="1:9" ht="30" hidden="1">
       <c r="A108" s="21" t="s">
         <v>246</v>
       </c>
@@ -7890,7 +7860,7 @@
       </c>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="1:9" ht="29" hidden="1">
+    <row r="109" spans="1:9" ht="30" hidden="1">
       <c r="A109" s="21" t="s">
         <v>247</v>
       </c>
@@ -7915,7 +7885,7 @@
       </c>
       <c r="I109" s="23"/>
     </row>
-    <row r="110" spans="1:9" ht="304.5" hidden="1">
+    <row r="110" spans="1:9" ht="315" hidden="1">
       <c r="A110" s="21" t="s">
         <v>76</v>
       </c>
@@ -7940,7 +7910,7 @@
       </c>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:9" ht="29" hidden="1">
+    <row r="111" spans="1:9" ht="30" hidden="1">
       <c r="A111" s="21" t="s">
         <v>77</v>
       </c>
@@ -7965,7 +7935,7 @@
       </c>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:9" ht="29" hidden="1">
+    <row r="112" spans="1:9" ht="30" hidden="1">
       <c r="A112" s="21" t="s">
         <v>78</v>
       </c>
@@ -7990,7 +7960,7 @@
       </c>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:9" ht="29" hidden="1">
+    <row r="113" spans="1:9" ht="30" hidden="1">
       <c r="A113" s="21" t="s">
         <v>79</v>
       </c>
@@ -8015,7 +7985,7 @@
       </c>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:9" ht="29" hidden="1">
+    <row r="114" spans="1:9" ht="30" hidden="1">
       <c r="A114" s="21" t="s">
         <v>80</v>
       </c>
@@ -8040,7 +8010,7 @@
       </c>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="1:9" ht="29" hidden="1">
+    <row r="115" spans="1:9" ht="30" hidden="1">
       <c r="A115" s="21" t="s">
         <v>81</v>
       </c>
@@ -8065,7 +8035,7 @@
       </c>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="1:9" ht="29" hidden="1">
+    <row r="116" spans="1:9" ht="30" hidden="1">
       <c r="A116" s="21" t="s">
         <v>82</v>
       </c>
@@ -8090,7 +8060,7 @@
       </c>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="1:9" ht="29" hidden="1">
+    <row r="117" spans="1:9" ht="30" hidden="1">
       <c r="A117" s="14" t="s">
         <v>83</v>
       </c>
@@ -8117,7 +8087,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="319" hidden="1">
+    <row r="118" spans="1:9" ht="315" hidden="1">
       <c r="A118" s="21" t="s">
         <v>84</v>
       </c>
@@ -8142,7 +8112,7 @@
       </c>
       <c r="I118" s="23"/>
     </row>
-    <row r="119" spans="1:9" ht="43.5" hidden="1">
+    <row r="119" spans="1:9" ht="45" hidden="1">
       <c r="A119" s="21" t="s">
         <v>85</v>
       </c>
@@ -8167,7 +8137,7 @@
       </c>
       <c r="I119" s="23"/>
     </row>
-    <row r="120" spans="1:9" ht="29" hidden="1">
+    <row r="120" spans="1:9" ht="30" hidden="1">
       <c r="A120" s="21" t="s">
         <v>86</v>
       </c>
@@ -8192,7 +8162,7 @@
       </c>
       <c r="I120" s="23"/>
     </row>
-    <row r="121" spans="1:9" ht="29" hidden="1">
+    <row r="121" spans="1:9" ht="30" hidden="1">
       <c r="A121" s="21" t="s">
         <v>87</v>
       </c>
@@ -8217,7 +8187,7 @@
       </c>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="1:9" ht="29" hidden="1">
+    <row r="122" spans="1:9" ht="30" hidden="1">
       <c r="A122" s="21" t="s">
         <v>88</v>
       </c>
@@ -8242,7 +8212,7 @@
       </c>
       <c r="I122" s="23"/>
     </row>
-    <row r="123" spans="1:9" ht="29" hidden="1">
+    <row r="123" spans="1:9" ht="30" hidden="1">
       <c r="A123" s="21" t="s">
         <v>89</v>
       </c>
@@ -8267,7 +8237,7 @@
       </c>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="1:9" ht="29" hidden="1">
+    <row r="124" spans="1:9" ht="30" hidden="1">
       <c r="A124" s="21" t="s">
         <v>90</v>
       </c>
@@ -8292,7 +8262,7 @@
       </c>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="1:9" ht="29" hidden="1">
+    <row r="125" spans="1:9" ht="30" hidden="1">
       <c r="A125" s="21" t="s">
         <v>91</v>
       </c>
@@ -8317,7 +8287,7 @@
       </c>
       <c r="I125" s="23"/>
     </row>
-    <row r="126" spans="1:9" ht="29" hidden="1">
+    <row r="126" spans="1:9" ht="30" hidden="1">
       <c r="A126" s="21" t="s">
         <v>92</v>
       </c>
@@ -8342,7 +8312,7 @@
       </c>
       <c r="I126" s="23"/>
     </row>
-    <row r="127" spans="1:9" ht="29" hidden="1">
+    <row r="127" spans="1:9" ht="30" hidden="1">
       <c r="A127" s="21" t="s">
         <v>93</v>
       </c>
@@ -8367,7 +8337,7 @@
       </c>
       <c r="I127" s="23"/>
     </row>
-    <row r="128" spans="1:9" ht="29" hidden="1">
+    <row r="128" spans="1:9" ht="30" hidden="1">
       <c r="A128" s="21" t="s">
         <v>94</v>
       </c>
@@ -8392,7 +8362,7 @@
       </c>
       <c r="I128" s="23"/>
     </row>
-    <row r="129" spans="1:9" ht="29" hidden="1">
+    <row r="129" spans="1:9" ht="30" hidden="1">
       <c r="A129" s="21" t="s">
         <v>95</v>
       </c>
@@ -8417,7 +8387,7 @@
       </c>
       <c r="I129" s="23"/>
     </row>
-    <row r="130" spans="1:9" ht="29" hidden="1">
+    <row r="130" spans="1:9" ht="30" hidden="1">
       <c r="A130" s="21" t="s">
         <v>96</v>
       </c>
@@ -8442,7 +8412,7 @@
       </c>
       <c r="I130" s="23"/>
     </row>
-    <row r="131" spans="1:9" ht="29" hidden="1">
+    <row r="131" spans="1:9" ht="30" hidden="1">
       <c r="A131" s="21" t="s">
         <v>97</v>
       </c>
@@ -8467,7 +8437,7 @@
       </c>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="1:9" ht="29" hidden="1">
+    <row r="132" spans="1:9" ht="30" hidden="1">
       <c r="A132" s="21" t="s">
         <v>98</v>
       </c>
@@ -8492,7 +8462,7 @@
       </c>
       <c r="I132" s="23"/>
     </row>
-    <row r="133" spans="1:9" ht="29" hidden="1">
+    <row r="133" spans="1:9" ht="30" hidden="1">
       <c r="A133" s="21" t="s">
         <v>99</v>
       </c>
@@ -8517,7 +8487,7 @@
       </c>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="1:9" ht="29" hidden="1">
+    <row r="134" spans="1:9" ht="30" hidden="1">
       <c r="A134" s="21" t="s">
         <v>100</v>
       </c>
@@ -8542,7 +8512,7 @@
       </c>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="1:9" ht="130.5" hidden="1">
+    <row r="135" spans="1:9" ht="135" hidden="1">
       <c r="A135" s="21" t="s">
         <v>101</v>
       </c>
@@ -8567,7 +8537,7 @@
       </c>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="1:9" ht="29" hidden="1">
+    <row r="136" spans="1:9" ht="30" hidden="1">
       <c r="A136" s="21" t="s">
         <v>102</v>
       </c>
@@ -8592,7 +8562,7 @@
       </c>
       <c r="I136" s="23"/>
     </row>
-    <row r="137" spans="1:9" ht="29" hidden="1">
+    <row r="137" spans="1:9" ht="30" hidden="1">
       <c r="A137" s="21" t="s">
         <v>103</v>
       </c>
@@ -8617,7 +8587,7 @@
       </c>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="1:9" ht="29" hidden="1">
+    <row r="138" spans="1:9" ht="30" hidden="1">
       <c r="A138" s="21" t="s">
         <v>104</v>
       </c>
@@ -8642,7 +8612,7 @@
       </c>
       <c r="I138" s="23"/>
     </row>
-    <row r="139" spans="1:9" ht="43.5">
+    <row r="139" spans="1:9" ht="45">
       <c r="A139" s="21" t="s">
         <v>105</v>
       </c>
@@ -8667,7 +8637,7 @@
       </c>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="1:9" ht="43.5">
+    <row r="140" spans="1:9" ht="45">
       <c r="A140" s="21" t="s">
         <v>106</v>
       </c>
@@ -8692,7 +8662,7 @@
       </c>
       <c r="I140" s="23"/>
     </row>
-    <row r="141" spans="1:9" ht="348">
+    <row r="141" spans="1:9" ht="360">
       <c r="A141" s="21" t="s">
         <v>107</v>
       </c>
@@ -8717,7 +8687,7 @@
       </c>
       <c r="I141" s="23"/>
     </row>
-    <row r="142" spans="1:9" ht="43.5">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="21" t="s">
         <v>108</v>
       </c>
@@ -8742,7 +8712,7 @@
       </c>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="1:9" ht="29">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="21" t="s">
         <v>109</v>
       </c>
@@ -8767,7 +8737,7 @@
       </c>
       <c r="I143" s="23"/>
     </row>
-    <row r="144" spans="1:9" ht="43.5">
+    <row r="144" spans="1:9" ht="45">
       <c r="A144" s="21" t="s">
         <v>110</v>
       </c>
@@ -8792,7 +8762,7 @@
       </c>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="1:9" ht="29">
+    <row r="145" spans="1:9" ht="30">
       <c r="A145" s="21" t="s">
         <v>111</v>
       </c>
@@ -8817,7 +8787,7 @@
       </c>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" ht="29">
+    <row r="146" spans="1:9" ht="30">
       <c r="A146" s="21" t="s">
         <v>112</v>
       </c>
@@ -8842,7 +8812,7 @@
       </c>
       <c r="I146" s="23"/>
     </row>
-    <row r="147" spans="1:9" ht="43.5">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="14" t="s">
         <v>113</v>
       </c>
@@ -8867,7 +8837,7 @@
       </c>
       <c r="I147" s="23"/>
     </row>
-    <row r="148" spans="1:9" ht="29">
+    <row r="148" spans="1:9" ht="30">
       <c r="A148" s="21" t="s">
         <v>114</v>
       </c>
@@ -8892,7 +8862,7 @@
       </c>
       <c r="I148" s="23"/>
     </row>
-    <row r="149" spans="1:9" ht="29">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="14" t="s">
         <v>115</v>
       </c>
@@ -8917,7 +8887,7 @@
       </c>
       <c r="I149" s="13"/>
     </row>
-    <row r="150" spans="1:9" ht="29">
+    <row r="150" spans="1:9" ht="30">
       <c r="A150" s="14" t="s">
         <v>116</v>
       </c>
@@ -8942,7 +8912,7 @@
       </c>
       <c r="I150" s="23"/>
     </row>
-    <row r="151" spans="1:9" ht="29">
+    <row r="151" spans="1:9" ht="30">
       <c r="A151" s="21" t="s">
         <v>117</v>
       </c>
@@ -8967,7 +8937,7 @@
       </c>
       <c r="I151" s="23"/>
     </row>
-    <row r="152" spans="1:9" ht="29">
+    <row r="152" spans="1:9">
       <c r="A152" s="14" t="s">
         <v>118</v>
       </c>
@@ -8992,7 +8962,7 @@
       </c>
       <c r="I152" s="13"/>
     </row>
-    <row r="153" spans="1:9" ht="29" hidden="1">
+    <row r="153" spans="1:9" ht="30" hidden="1">
       <c r="A153" s="21" t="s">
         <v>270</v>
       </c>
@@ -9017,7 +8987,7 @@
       </c>
       <c r="I153" s="23"/>
     </row>
-    <row r="154" spans="1:9" ht="43.5" hidden="1">
+    <row r="154" spans="1:9" ht="30" hidden="1">
       <c r="A154" s="21" t="s">
         <v>271</v>
       </c>
@@ -9042,7 +9012,7 @@
       </c>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="1:9" ht="130.5" hidden="1">
+    <row r="155" spans="1:9" ht="135" hidden="1">
       <c r="A155" s="21" t="s">
         <v>272</v>
       </c>
@@ -9067,7 +9037,7 @@
       </c>
       <c r="I155" s="23"/>
     </row>
-    <row r="156" spans="1:9" ht="29" hidden="1">
+    <row r="156" spans="1:9" ht="30" hidden="1">
       <c r="A156" s="21" t="s">
         <v>248</v>
       </c>
@@ -9092,7 +9062,7 @@
       </c>
       <c r="I156" s="23"/>
     </row>
-    <row r="157" spans="1:9" ht="29" hidden="1">
+    <row r="157" spans="1:9" ht="30" hidden="1">
       <c r="A157" s="21" t="s">
         <v>249</v>
       </c>
@@ -9117,7 +9087,7 @@
       </c>
       <c r="I157" s="23"/>
     </row>
-    <row r="158" spans="1:9" ht="319" hidden="1">
+    <row r="158" spans="1:9" ht="330" hidden="1">
       <c r="A158" s="21" t="s">
         <v>250</v>
       </c>
@@ -9142,7 +9112,7 @@
       </c>
       <c r="I158" s="23"/>
     </row>
-    <row r="159" spans="1:9" ht="29" hidden="1">
+    <row r="159" spans="1:9" ht="30" hidden="1">
       <c r="A159" s="21" t="s">
         <v>251</v>
       </c>
@@ -9167,7 +9137,7 @@
       </c>
       <c r="I159" s="23"/>
     </row>
-    <row r="160" spans="1:9" ht="29" hidden="1">
+    <row r="160" spans="1:9" ht="30" hidden="1">
       <c r="A160" s="21" t="s">
         <v>252</v>
       </c>
@@ -9192,7 +9162,7 @@
       </c>
       <c r="I160" s="23"/>
     </row>
-    <row r="161" spans="1:9" ht="101.5" hidden="1">
+    <row r="161" spans="1:9" ht="90" hidden="1">
       <c r="A161" s="21" t="s">
         <v>253</v>
       </c>
@@ -9219,7 +9189,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="29" hidden="1">
+    <row r="162" spans="1:9" ht="30" hidden="1">
       <c r="A162" s="21" t="s">
         <v>254</v>
       </c>
@@ -9246,7 +9216,7 @@
       </c>
       <c r="I162" s="23"/>
     </row>
-    <row r="163" spans="1:9" ht="29" hidden="1">
+    <row r="163" spans="1:9" ht="30" hidden="1">
       <c r="A163" s="21" t="s">
         <v>255</v>
       </c>
@@ -9273,7 +9243,7 @@
       </c>
       <c r="I163" s="23"/>
     </row>
-    <row r="164" spans="1:9" ht="29" hidden="1">
+    <row r="164" spans="1:9" ht="30" hidden="1">
       <c r="A164" s="21" t="s">
         <v>256</v>
       </c>
@@ -9300,7 +9270,7 @@
       </c>
       <c r="I164" s="23"/>
     </row>
-    <row r="165" spans="1:9" ht="29" hidden="1">
+    <row r="165" spans="1:9" ht="30" hidden="1">
       <c r="A165" s="21" t="s">
         <v>257</v>
       </c>
@@ -9327,7 +9297,7 @@
       </c>
       <c r="I165" s="23"/>
     </row>
-    <row r="166" spans="1:9" ht="29" hidden="1">
+    <row r="166" spans="1:9" ht="30" hidden="1">
       <c r="A166" s="21" t="s">
         <v>258</v>
       </c>
@@ -9354,7 +9324,7 @@
       </c>
       <c r="I166" s="23"/>
     </row>
-    <row r="167" spans="1:9" ht="29" hidden="1">
+    <row r="167" spans="1:9" ht="30" hidden="1">
       <c r="A167" s="21" t="s">
         <v>259</v>
       </c>
@@ -9379,7 +9349,7 @@
       </c>
       <c r="I167" s="23"/>
     </row>
-    <row r="168" spans="1:9" ht="29" hidden="1">
+    <row r="168" spans="1:9" ht="30" hidden="1">
       <c r="A168" s="21" t="s">
         <v>260</v>
       </c>
@@ -9429,7 +9399,7 @@
       </c>
       <c r="I169" s="13"/>
     </row>
-    <row r="170" spans="1:9" ht="29" hidden="1">
+    <row r="170" spans="1:9" ht="30" hidden="1">
       <c r="A170" s="14" t="s">
         <v>262</v>
       </c>
@@ -9456,7 +9426,7 @@
       </c>
       <c r="I170" s="23"/>
     </row>
-    <row r="171" spans="1:9" ht="29" hidden="1">
+    <row r="171" spans="1:9" ht="30" hidden="1">
       <c r="A171" s="21" t="s">
         <v>263</v>
       </c>
@@ -9508,7 +9478,7 @@
       </c>
       <c r="I172" s="23"/>
     </row>
-    <row r="173" spans="1:9" ht="29" hidden="1">
+    <row r="173" spans="1:9" ht="30" hidden="1">
       <c r="A173" s="21" t="s">
         <v>265</v>
       </c>
@@ -9533,7 +9503,7 @@
       </c>
       <c r="I173" s="23"/>
     </row>
-    <row r="174" spans="1:9" ht="29" hidden="1">
+    <row r="174" spans="1:9" ht="30" hidden="1">
       <c r="A174" s="21" t="s">
         <v>266</v>
       </c>
@@ -9583,7 +9553,7 @@
       </c>
       <c r="I175" s="13"/>
     </row>
-    <row r="176" spans="1:9" ht="29" hidden="1">
+    <row r="176" spans="1:9" ht="30" hidden="1">
       <c r="A176" s="14" t="s">
         <v>268</v>
       </c>
@@ -9610,7 +9580,7 @@
       </c>
       <c r="I176" s="23"/>
     </row>
-    <row r="177" spans="1:9" ht="29" hidden="1">
+    <row r="177" spans="1:9" ht="30" hidden="1">
       <c r="A177" s="21" t="s">
         <v>269</v>
       </c>
@@ -9637,7 +9607,7 @@
       </c>
       <c r="I177" s="23"/>
     </row>
-    <row r="178" spans="1:9" ht="29" hidden="1">
+    <row r="178" spans="1:9" ht="30" hidden="1">
       <c r="A178" s="21" t="s">
         <v>273</v>
       </c>
@@ -9662,7 +9632,7 @@
       </c>
       <c r="I178" s="23"/>
     </row>
-    <row r="179" spans="1:9" ht="87" hidden="1">
+    <row r="179" spans="1:9" ht="75" hidden="1">
       <c r="A179" s="21" t="s">
         <v>274</v>
       </c>
@@ -9687,7 +9657,7 @@
       </c>
       <c r="I179" s="23"/>
     </row>
-    <row r="180" spans="1:9" ht="261" hidden="1">
+    <row r="180" spans="1:9" ht="225" hidden="1">
       <c r="A180" s="21" t="s">
         <v>275</v>
       </c>
@@ -9712,7 +9682,7 @@
       </c>
       <c r="I180" s="23"/>
     </row>
-    <row r="181" spans="1:9" ht="29" hidden="1">
+    <row r="181" spans="1:9" ht="30" hidden="1">
       <c r="A181" s="21" t="s">
         <v>276</v>
       </c>
@@ -9737,7 +9707,7 @@
       </c>
       <c r="I181" s="23"/>
     </row>
-    <row r="182" spans="1:9" ht="29" hidden="1">
+    <row r="182" spans="1:9" ht="30" hidden="1">
       <c r="A182" s="21" t="s">
         <v>277</v>
       </c>
@@ -9762,7 +9732,7 @@
       </c>
       <c r="I182" s="23"/>
     </row>
-    <row r="183" spans="1:9" ht="29" hidden="1">
+    <row r="183" spans="1:9" ht="30" hidden="1">
       <c r="A183" s="21" t="s">
         <v>278</v>
       </c>
@@ -9787,7 +9757,7 @@
       </c>
       <c r="I183" s="23"/>
     </row>
-    <row r="184" spans="1:9" ht="116" hidden="1">
+    <row r="184" spans="1:9" ht="120" hidden="1">
       <c r="A184" s="21" t="s">
         <v>279</v>
       </c>
@@ -9812,7 +9782,7 @@
       </c>
       <c r="I184" s="23"/>
     </row>
-    <row r="185" spans="1:9" ht="29" hidden="1">
+    <row r="185" spans="1:9" ht="30" hidden="1">
       <c r="A185" s="21" t="s">
         <v>280</v>
       </c>
@@ -9837,7 +9807,7 @@
       </c>
       <c r="I185" s="23"/>
     </row>
-    <row r="186" spans="1:9" ht="43.5" hidden="1">
+    <row r="186" spans="1:9" ht="45" hidden="1">
       <c r="A186" s="21" t="s">
         <v>281</v>
       </c>
@@ -9862,7 +9832,7 @@
       </c>
       <c r="I186" s="23"/>
     </row>
-    <row r="187" spans="1:9" ht="29" hidden="1">
+    <row r="187" spans="1:9" ht="30" hidden="1">
       <c r="A187" s="21" t="s">
         <v>282</v>
       </c>
@@ -9887,7 +9857,7 @@
       </c>
       <c r="I187" s="23"/>
     </row>
-    <row r="188" spans="1:9" ht="29" hidden="1">
+    <row r="188" spans="1:9" ht="30" hidden="1">
       <c r="A188" s="21" t="s">
         <v>283</v>
       </c>
@@ -9912,7 +9882,7 @@
       </c>
       <c r="I188" s="23"/>
     </row>
-    <row r="189" spans="1:9" ht="29" hidden="1">
+    <row r="189" spans="1:9" ht="30" hidden="1">
       <c r="A189" s="21" t="s">
         <v>284</v>
       </c>
@@ -9937,7 +9907,7 @@
       </c>
       <c r="I189" s="23"/>
     </row>
-    <row r="190" spans="1:9" ht="29" hidden="1">
+    <row r="190" spans="1:9" ht="30" hidden="1">
       <c r="A190" s="21" t="s">
         <v>285</v>
       </c>
@@ -9962,7 +9932,7 @@
       </c>
       <c r="I190" s="23"/>
     </row>
-    <row r="191" spans="1:9" ht="29" hidden="1">
+    <row r="191" spans="1:9" ht="30" hidden="1">
       <c r="A191" s="21" t="s">
         <v>286</v>
       </c>
@@ -9987,7 +9957,7 @@
       </c>
       <c r="I191" s="23"/>
     </row>
-    <row r="192" spans="1:9" ht="29" hidden="1">
+    <row r="192" spans="1:9" ht="30" hidden="1">
       <c r="A192" s="21" t="s">
         <v>287</v>
       </c>
@@ -10037,7 +10007,7 @@
       </c>
       <c r="I193" s="23"/>
     </row>
-    <row r="194" spans="1:9" ht="29" hidden="1">
+    <row r="194" spans="1:9" ht="30" hidden="1">
       <c r="A194" s="21" t="s">
         <v>289</v>
       </c>
@@ -10062,7 +10032,7 @@
       </c>
       <c r="I194" s="23"/>
     </row>
-    <row r="195" spans="1:9" ht="29" hidden="1">
+    <row r="195" spans="1:9" ht="30" hidden="1">
       <c r="A195" s="21" t="s">
         <v>290</v>
       </c>
@@ -10087,7 +10057,7 @@
       </c>
       <c r="I195" s="23"/>
     </row>
-    <row r="196" spans="1:9" ht="87" hidden="1">
+    <row r="196" spans="1:9" ht="90" hidden="1">
       <c r="A196" s="21" t="s">
         <v>291</v>
       </c>
@@ -10112,7 +10082,7 @@
       </c>
       <c r="I196" s="23"/>
     </row>
-    <row r="197" spans="1:9" ht="43.5" hidden="1">
+    <row r="197" spans="1:9" ht="30" hidden="1">
       <c r="A197" s="21" t="s">
         <v>292</v>
       </c>
@@ -10137,7 +10107,7 @@
       </c>
       <c r="I197" s="23"/>
     </row>
-    <row r="198" spans="1:9" ht="29" hidden="1">
+    <row r="198" spans="1:9" ht="30" hidden="1">
       <c r="A198" s="21" t="s">
         <v>293</v>
       </c>
@@ -10162,7 +10132,7 @@
       </c>
       <c r="I198" s="23"/>
     </row>
-    <row r="199" spans="1:9" ht="29" hidden="1">
+    <row r="199" spans="1:9" ht="30" hidden="1">
       <c r="A199" s="21" t="s">
         <v>294</v>
       </c>
@@ -10187,7 +10157,7 @@
       </c>
       <c r="I199" s="23"/>
     </row>
-    <row r="200" spans="1:9" ht="29" hidden="1">
+    <row r="200" spans="1:9" ht="30" hidden="1">
       <c r="A200" s="21" t="s">
         <v>295</v>
       </c>
@@ -10212,7 +10182,7 @@
       </c>
       <c r="I200" s="23"/>
     </row>
-    <row r="201" spans="1:9" ht="29" hidden="1">
+    <row r="201" spans="1:9" ht="30" hidden="1">
       <c r="A201" s="21" t="s">
         <v>296</v>
       </c>
@@ -10237,7 +10207,7 @@
       </c>
       <c r="I201" s="23"/>
     </row>
-    <row r="202" spans="1:9" ht="29" hidden="1">
+    <row r="202" spans="1:9" ht="30" hidden="1">
       <c r="A202" s="21" t="s">
         <v>297</v>
       </c>
@@ -10262,7 +10232,7 @@
       </c>
       <c r="I202" s="23"/>
     </row>
-    <row r="203" spans="1:9" ht="43.5" hidden="1">
+    <row r="203" spans="1:9" ht="30" hidden="1">
       <c r="A203" s="21" t="s">
         <v>298</v>
       </c>
@@ -10287,7 +10257,7 @@
       </c>
       <c r="I203" s="23"/>
     </row>
-    <row r="204" spans="1:9" ht="29" hidden="1">
+    <row r="204" spans="1:9" ht="30" hidden="1">
       <c r="A204" s="21" t="s">
         <v>299</v>
       </c>
@@ -10312,7 +10282,7 @@
       </c>
       <c r="I204" s="23"/>
     </row>
-    <row r="205" spans="1:9" ht="29" hidden="1">
+    <row r="205" spans="1:9" ht="30" hidden="1">
       <c r="A205" s="21" t="s">
         <v>300</v>
       </c>
@@ -10337,7 +10307,7 @@
       </c>
       <c r="I205" s="23"/>
     </row>
-    <row r="206" spans="1:9" ht="72.5" hidden="1">
+    <row r="206" spans="1:9" ht="75" hidden="1">
       <c r="A206" s="21" t="s">
         <v>301</v>
       </c>
@@ -10362,7 +10332,7 @@
       </c>
       <c r="I206" s="23"/>
     </row>
-    <row r="207" spans="1:9" ht="72.5" hidden="1">
+    <row r="207" spans="1:9" ht="60" hidden="1">
       <c r="A207" s="21" t="s">
         <v>302</v>
       </c>
@@ -10387,7 +10357,7 @@
       </c>
       <c r="I207" s="23"/>
     </row>
-    <row r="208" spans="1:9" ht="72.5" hidden="1">
+    <row r="208" spans="1:9" ht="60" hidden="1">
       <c r="A208" s="21" t="s">
         <v>303</v>
       </c>
@@ -10412,7 +10382,7 @@
       </c>
       <c r="I208" s="23"/>
     </row>
-    <row r="209" spans="1:9" ht="29" hidden="1">
+    <row r="209" spans="1:9" ht="30" hidden="1">
       <c r="A209" s="21" t="s">
         <v>304</v>
       </c>
@@ -10437,7 +10407,7 @@
       </c>
       <c r="I209" s="23"/>
     </row>
-    <row r="210" spans="1:9" ht="29" hidden="1">
+    <row r="210" spans="1:9" ht="30" hidden="1">
       <c r="A210" s="21" t="s">
         <v>305</v>
       </c>
@@ -10462,7 +10432,7 @@
       </c>
       <c r="I210" s="23"/>
     </row>
-    <row r="211" spans="1:9" ht="29" hidden="1">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" s="21" t="s">
         <v>306</v>
       </c>
@@ -10487,7 +10457,7 @@
       </c>
       <c r="I211" s="23"/>
     </row>
-    <row r="212" spans="1:9" ht="43.5" hidden="1">
+    <row r="212" spans="1:9" ht="30" hidden="1">
       <c r="A212" s="21" t="s">
         <v>71</v>
       </c>
@@ -10512,7 +10482,7 @@
       </c>
       <c r="I212" s="23"/>
     </row>
-    <row r="213" spans="1:9" ht="29" hidden="1">
+    <row r="213" spans="1:9" ht="30" hidden="1">
       <c r="A213" s="21" t="s">
         <v>72</v>
       </c>
@@ -10537,7 +10507,7 @@
       </c>
       <c r="I213" s="23"/>
     </row>
-    <row r="214" spans="1:9" ht="29" hidden="1">
+    <row r="214" spans="1:9" ht="30" hidden="1">
       <c r="A214" s="21" t="s">
         <v>73</v>
       </c>
@@ -10562,7 +10532,7 @@
       </c>
       <c r="I214" s="23"/>
     </row>
-    <row r="215" spans="1:9" ht="29" hidden="1">
+    <row r="215" spans="1:9" ht="30" hidden="1">
       <c r="A215" s="21" t="s">
         <v>74</v>
       </c>
@@ -10587,7 +10557,7 @@
       </c>
       <c r="I215" s="23"/>
     </row>
-    <row r="216" spans="1:9" ht="29" hidden="1">
+    <row r="216" spans="1:9" ht="30" hidden="1">
       <c r="A216" s="21" t="s">
         <v>75</v>
       </c>
@@ -10612,7 +10582,7 @@
       </c>
       <c r="I216" s="23"/>
     </row>
-    <row r="217" spans="1:9" ht="174" hidden="1">
+    <row r="217" spans="1:9" ht="180" hidden="1">
       <c r="A217" s="21" t="s">
         <v>348</v>
       </c>
@@ -10637,7 +10607,7 @@
       </c>
       <c r="I217" s="23"/>
     </row>
-    <row r="218" spans="1:9" ht="29" hidden="1">
+    <row r="218" spans="1:9" ht="30" hidden="1">
       <c r="A218" s="21" t="s">
         <v>349</v>
       </c>
@@ -10662,7 +10632,7 @@
       </c>
       <c r="I218" s="23"/>
     </row>
-    <row r="219" spans="1:9" ht="29" hidden="1">
+    <row r="219" spans="1:9" ht="30" hidden="1">
       <c r="A219" s="21" t="s">
         <v>350</v>
       </c>
@@ -10687,7 +10657,7 @@
       </c>
       <c r="I219" s="23"/>
     </row>
-    <row r="220" spans="1:9" ht="29" hidden="1">
+    <row r="220" spans="1:9" ht="30" hidden="1">
       <c r="A220" s="21" t="s">
         <v>351</v>
       </c>
@@ -10712,7 +10682,7 @@
       </c>
       <c r="I220" s="23"/>
     </row>
-    <row r="221" spans="1:9" ht="348" hidden="1">
+    <row r="221" spans="1:9" ht="360" hidden="1">
       <c r="A221" s="21" t="s">
         <v>119</v>
       </c>
@@ -10737,7 +10707,7 @@
       </c>
       <c r="I221" s="23"/>
     </row>
-    <row r="222" spans="1:9" ht="43.5" hidden="1">
+    <row r="222" spans="1:9" ht="30" hidden="1">
       <c r="A222" s="21" t="s">
         <v>120</v>
       </c>
@@ -10762,7 +10732,7 @@
       </c>
       <c r="I222" s="23"/>
     </row>
-    <row r="223" spans="1:9" ht="29" hidden="1">
+    <row r="223" spans="1:9" ht="30" hidden="1">
       <c r="A223" s="21" t="s">
         <v>121</v>
       </c>
@@ -10787,7 +10757,7 @@
       </c>
       <c r="I223" s="23"/>
     </row>
-    <row r="224" spans="1:9" ht="29" hidden="1">
+    <row r="224" spans="1:9" ht="30" hidden="1">
       <c r="A224" s="21" t="s">
         <v>122</v>
       </c>
@@ -10812,7 +10782,7 @@
       </c>
       <c r="I224" s="23"/>
     </row>
-    <row r="225" spans="1:9" ht="29" hidden="1">
+    <row r="225" spans="1:9" ht="30" hidden="1">
       <c r="A225" s="21" t="s">
         <v>123</v>
       </c>
@@ -10837,7 +10807,7 @@
       </c>
       <c r="I225" s="23"/>
     </row>
-    <row r="226" spans="1:9" ht="29" hidden="1">
+    <row r="226" spans="1:9" ht="30" hidden="1">
       <c r="A226" s="21" t="s">
         <v>124</v>
       </c>
@@ -10862,7 +10832,7 @@
       </c>
       <c r="I226" s="23"/>
     </row>
-    <row r="227" spans="1:9" ht="29" hidden="1">
+    <row r="227" spans="1:9" ht="30" hidden="1">
       <c r="A227" s="21" t="s">
         <v>125</v>
       </c>
@@ -10887,7 +10857,7 @@
       </c>
       <c r="I227" s="23"/>
     </row>
-    <row r="228" spans="1:9" ht="29" hidden="1">
+    <row r="228" spans="1:9" ht="30" hidden="1">
       <c r="A228" s="21" t="s">
         <v>126</v>
       </c>
@@ -10912,7 +10882,7 @@
       </c>
       <c r="I228" s="23"/>
     </row>
-    <row r="229" spans="1:9" ht="29" hidden="1">
+    <row r="229" spans="1:9" ht="30" hidden="1">
       <c r="A229" s="21" t="s">
         <v>127</v>
       </c>
@@ -10937,7 +10907,7 @@
       </c>
       <c r="I229" s="23"/>
     </row>
-    <row r="230" spans="1:9" ht="29" hidden="1">
+    <row r="230" spans="1:9" ht="30" hidden="1">
       <c r="A230" s="21" t="s">
         <v>128</v>
       </c>
@@ -10987,7 +10957,7 @@
       </c>
       <c r="I231" s="23"/>
     </row>
-    <row r="232" spans="1:9" ht="72.5" hidden="1">
+    <row r="232" spans="1:9" ht="60" hidden="1">
       <c r="A232" s="21" t="s">
         <v>130</v>
       </c>
@@ -11012,7 +10982,7 @@
       </c>
       <c r="I232" s="23"/>
     </row>
-    <row r="233" spans="1:9" ht="29" hidden="1">
+    <row r="233" spans="1:9" ht="30" hidden="1">
       <c r="A233" s="21" t="s">
         <v>131</v>
       </c>
@@ -11037,7 +11007,7 @@
       </c>
       <c r="I233" s="23"/>
     </row>
-    <row r="234" spans="1:9" ht="29" hidden="1">
+    <row r="234" spans="1:9" ht="30" hidden="1">
       <c r="A234" s="14" t="s">
         <v>132</v>
       </c>
@@ -11062,7 +11032,7 @@
       </c>
       <c r="I234" s="13"/>
     </row>
-    <row r="235" spans="1:9" ht="29" hidden="1">
+    <row r="235" spans="1:9" ht="30" hidden="1">
       <c r="A235" s="14" t="s">
         <v>882</v>
       </c>
@@ -11087,7 +11057,7 @@
       </c>
       <c r="I235" s="42"/>
     </row>
-    <row r="236" spans="1:9" ht="29" hidden="1">
+    <row r="236" spans="1:9" ht="30" hidden="1">
       <c r="A236" s="14" t="s">
         <v>883</v>
       </c>
@@ -11114,7 +11084,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="29" hidden="1">
+    <row r="237" spans="1:9" ht="30" hidden="1">
       <c r="A237" s="21" t="s">
         <v>133</v>
       </c>
@@ -11139,7 +11109,7 @@
       </c>
       <c r="I237" s="23"/>
     </row>
-    <row r="238" spans="1:9" ht="29" hidden="1">
+    <row r="238" spans="1:9" ht="30" hidden="1">
       <c r="A238" s="21" t="s">
         <v>134</v>
       </c>
@@ -11164,7 +11134,7 @@
       </c>
       <c r="I238" s="23"/>
     </row>
-    <row r="239" spans="1:9" ht="29" hidden="1">
+    <row r="239" spans="1:9" ht="30" hidden="1">
       <c r="A239" s="21" t="s">
         <v>135</v>
       </c>
@@ -11189,7 +11159,7 @@
       </c>
       <c r="I239" s="23"/>
     </row>
-    <row r="240" spans="1:9" ht="29" hidden="1">
+    <row r="240" spans="1:9" ht="30" hidden="1">
       <c r="A240" s="21" t="s">
         <v>136</v>
       </c>
@@ -11214,7 +11184,7 @@
       </c>
       <c r="I240" s="23"/>
     </row>
-    <row r="241" spans="1:9" ht="29" hidden="1">
+    <row r="241" spans="1:9" ht="30" hidden="1">
       <c r="A241" s="21" t="s">
         <v>137</v>
       </c>
@@ -11239,7 +11209,7 @@
       </c>
       <c r="I241" s="23"/>
     </row>
-    <row r="242" spans="1:9" ht="29" hidden="1">
+    <row r="242" spans="1:9" ht="30" hidden="1">
       <c r="A242" s="21" t="s">
         <v>138</v>
       </c>
@@ -11264,7 +11234,7 @@
       </c>
       <c r="I242" s="23"/>
     </row>
-    <row r="243" spans="1:9" ht="29" hidden="1">
+    <row r="243" spans="1:9" ht="30" hidden="1">
       <c r="A243" s="14" t="s">
         <v>139</v>
       </c>
@@ -11289,7 +11259,7 @@
       </c>
       <c r="I243" s="23"/>
     </row>
-    <row r="244" spans="1:9" ht="29" hidden="1">
+    <row r="244" spans="1:9" ht="30" hidden="1">
       <c r="A244" s="14" t="s">
         <v>140</v>
       </c>
@@ -11314,7 +11284,7 @@
       </c>
       <c r="I244" s="23"/>
     </row>
-    <row r="245" spans="1:9" ht="29" hidden="1">
+    <row r="245" spans="1:9" ht="30" hidden="1">
       <c r="A245" s="21" t="s">
         <v>141</v>
       </c>
@@ -11339,7 +11309,7 @@
       </c>
       <c r="I245" s="23"/>
     </row>
-    <row r="246" spans="1:9" ht="29" hidden="1">
+    <row r="246" spans="1:9" ht="30" hidden="1">
       <c r="A246" s="21" t="s">
         <v>142</v>
       </c>
@@ -11366,7 +11336,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="29" hidden="1">
+    <row r="247" spans="1:9" ht="30" hidden="1">
       <c r="A247" s="21" t="s">
         <v>143</v>
       </c>
@@ -11391,7 +11361,7 @@
       </c>
       <c r="I247" s="23"/>
     </row>
-    <row r="248" spans="1:9" ht="29" hidden="1">
+    <row r="248" spans="1:9" ht="30" hidden="1">
       <c r="A248" s="21" t="s">
         <v>144</v>
       </c>
@@ -11416,7 +11386,7 @@
       </c>
       <c r="I248" s="23"/>
     </row>
-    <row r="249" spans="1:9" ht="29" hidden="1">
+    <row r="249" spans="1:9" ht="30" hidden="1">
       <c r="A249" s="14" t="s">
         <v>145</v>
       </c>
@@ -11441,7 +11411,7 @@
       </c>
       <c r="I249" s="23"/>
     </row>
-    <row r="250" spans="1:9" ht="29" hidden="1">
+    <row r="250" spans="1:9" ht="30" hidden="1">
       <c r="A250" s="14" t="s">
         <v>146</v>
       </c>
@@ -11466,7 +11436,7 @@
       </c>
       <c r="I250" s="23"/>
     </row>
-    <row r="251" spans="1:9" ht="29" hidden="1">
+    <row r="251" spans="1:9" ht="30" hidden="1">
       <c r="A251" s="14" t="s">
         <v>896</v>
       </c>
@@ -11491,7 +11461,7 @@
       </c>
       <c r="I251" s="42"/>
     </row>
-    <row r="252" spans="1:9" ht="29" hidden="1">
+    <row r="252" spans="1:9" ht="30" hidden="1">
       <c r="A252" s="21" t="s">
         <v>147</v>
       </c>
@@ -11516,7 +11486,7 @@
       </c>
       <c r="I252" s="23"/>
     </row>
-    <row r="253" spans="1:9" ht="29" hidden="1">
+    <row r="253" spans="1:9" ht="30" hidden="1">
       <c r="A253" s="21" t="s">
         <v>148</v>
       </c>
@@ -11541,7 +11511,7 @@
       </c>
       <c r="I253" s="23"/>
     </row>
-    <row r="254" spans="1:9" ht="29" hidden="1">
+    <row r="254" spans="1:9" ht="30" hidden="1">
       <c r="A254" s="21" t="s">
         <v>149</v>
       </c>
@@ -11566,7 +11536,7 @@
       </c>
       <c r="I254" s="23"/>
     </row>
-    <row r="255" spans="1:9" ht="29" hidden="1">
+    <row r="255" spans="1:9" ht="30" hidden="1">
       <c r="A255" s="21" t="s">
         <v>150</v>
       </c>
@@ -11591,7 +11561,7 @@
       </c>
       <c r="I255" s="23"/>
     </row>
-    <row r="256" spans="1:9" ht="29" hidden="1">
+    <row r="256" spans="1:9" ht="30" hidden="1">
       <c r="A256" s="21" t="s">
         <v>151</v>
       </c>
@@ -11616,7 +11586,7 @@
       </c>
       <c r="I256" s="23"/>
     </row>
-    <row r="257" spans="1:9" ht="29" hidden="1">
+    <row r="257" spans="1:9" ht="30" hidden="1">
       <c r="A257" s="21" t="s">
         <v>152</v>
       </c>
@@ -11641,7 +11611,7 @@
       </c>
       <c r="I257" s="23"/>
     </row>
-    <row r="258" spans="1:9" ht="29" hidden="1">
+    <row r="258" spans="1:9" ht="30" hidden="1">
       <c r="A258" s="21" t="s">
         <v>153</v>
       </c>
@@ -11666,7 +11636,7 @@
       </c>
       <c r="I258" s="23"/>
     </row>
-    <row r="259" spans="1:9" ht="29" hidden="1">
+    <row r="259" spans="1:9" ht="30" hidden="1">
       <c r="A259" s="21" t="s">
         <v>154</v>
       </c>
@@ -11691,7 +11661,7 @@
       </c>
       <c r="I259" s="23"/>
     </row>
-    <row r="260" spans="1:9" ht="29" hidden="1">
+    <row r="260" spans="1:9" ht="30" hidden="1">
       <c r="A260" s="21" t="s">
         <v>155</v>
       </c>
@@ -11716,7 +11686,7 @@
       </c>
       <c r="I260" s="23"/>
     </row>
-    <row r="261" spans="1:9" ht="29" hidden="1">
+    <row r="261" spans="1:9" ht="30" hidden="1">
       <c r="A261" s="21" t="s">
         <v>156</v>
       </c>
@@ -11741,7 +11711,7 @@
       </c>
       <c r="I261" s="23"/>
     </row>
-    <row r="262" spans="1:9" ht="29" hidden="1">
+    <row r="262" spans="1:9" ht="30" hidden="1">
       <c r="A262" s="21" t="s">
         <v>157</v>
       </c>
@@ -11766,7 +11736,7 @@
       </c>
       <c r="I262" s="23"/>
     </row>
-    <row r="263" spans="1:9" ht="29" hidden="1">
+    <row r="263" spans="1:9" ht="30" hidden="1">
       <c r="A263" s="21" t="s">
         <v>158</v>
       </c>
@@ -11791,7 +11761,7 @@
       </c>
       <c r="I263" s="23"/>
     </row>
-    <row r="264" spans="1:9" ht="29" hidden="1">
+    <row r="264" spans="1:9" ht="30" hidden="1">
       <c r="A264" s="21" t="s">
         <v>159</v>
       </c>
@@ -11816,7 +11786,7 @@
       </c>
       <c r="I264" s="23"/>
     </row>
-    <row r="265" spans="1:9" ht="29" hidden="1">
+    <row r="265" spans="1:9" ht="30" hidden="1">
       <c r="A265" s="21" t="s">
         <v>160</v>
       </c>
@@ -11841,7 +11811,7 @@
       </c>
       <c r="I265" s="23"/>
     </row>
-    <row r="266" spans="1:9" ht="29" hidden="1">
+    <row r="266" spans="1:9" ht="30" hidden="1">
       <c r="A266" s="21" t="s">
         <v>161</v>
       </c>
@@ -11866,7 +11836,7 @@
       </c>
       <c r="I266" s="23"/>
     </row>
-    <row r="267" spans="1:9" ht="29" hidden="1">
+    <row r="267" spans="1:9" ht="30" hidden="1">
       <c r="A267" s="14" t="s">
         <v>796</v>
       </c>
@@ -11893,7 +11863,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="29" hidden="1">
+    <row r="268" spans="1:9" ht="30" hidden="1">
       <c r="A268" s="14" t="s">
         <v>797</v>
       </c>
@@ -11918,7 +11888,7 @@
       </c>
       <c r="I268" s="42"/>
     </row>
-    <row r="269" spans="1:9" ht="29" hidden="1">
+    <row r="269" spans="1:9" ht="30" hidden="1">
       <c r="A269" s="14" t="s">
         <v>798</v>
       </c>
@@ -11945,7 +11915,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="29" hidden="1">
+    <row r="270" spans="1:9" hidden="1">
       <c r="A270" s="14" t="s">
         <v>799</v>
       </c>
@@ -11970,7 +11940,7 @@
       </c>
       <c r="I270" s="42"/>
     </row>
-    <row r="271" spans="1:9" ht="29" hidden="1">
+    <row r="271" spans="1:9" ht="30" hidden="1">
       <c r="A271" s="14" t="s">
         <v>800</v>
       </c>
@@ -11995,7 +11965,7 @@
       </c>
       <c r="I271" s="42"/>
     </row>
-    <row r="272" spans="1:9" ht="29" hidden="1">
+    <row r="272" spans="1:9" ht="30" hidden="1">
       <c r="A272" s="14" t="s">
         <v>801</v>
       </c>
@@ -12022,7 +11992,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="29" hidden="1">
+    <row r="273" spans="1:9" ht="30" hidden="1">
       <c r="A273" s="14" t="s">
         <v>802</v>
       </c>
@@ -12047,7 +12017,7 @@
       </c>
       <c r="I273" s="42"/>
     </row>
-    <row r="274" spans="1:9" ht="29" hidden="1">
+    <row r="274" spans="1:9" hidden="1">
       <c r="A274" s="14" t="s">
         <v>803</v>
       </c>
@@ -12072,7 +12042,7 @@
       </c>
       <c r="I274" s="42"/>
     </row>
-    <row r="275" spans="1:9" ht="130.5" hidden="1">
+    <row r="275" spans="1:9" ht="135" hidden="1">
       <c r="A275" s="21" t="s">
         <v>162</v>
       </c>
@@ -12097,7 +12067,7 @@
       </c>
       <c r="I275" s="23"/>
     </row>
-    <row r="276" spans="1:9" ht="29" hidden="1">
+    <row r="276" spans="1:9" ht="30" hidden="1">
       <c r="A276" s="21" t="s">
         <v>163</v>
       </c>
@@ -12122,7 +12092,7 @@
       </c>
       <c r="I276" s="23"/>
     </row>
-    <row r="277" spans="1:9" ht="29" hidden="1">
+    <row r="277" spans="1:9" ht="30" hidden="1">
       <c r="A277" s="21" t="s">
         <v>164</v>
       </c>
@@ -12147,7 +12117,7 @@
       </c>
       <c r="I277" s="23"/>
     </row>
-    <row r="278" spans="1:9" ht="29" hidden="1">
+    <row r="278" spans="1:9" ht="30" hidden="1">
       <c r="A278" s="21" t="s">
         <v>165</v>
       </c>
@@ -12172,7 +12142,7 @@
       </c>
       <c r="I278" s="23"/>
     </row>
-    <row r="279" spans="1:9" ht="174" hidden="1">
+    <row r="279" spans="1:9" ht="180" hidden="1">
       <c r="A279" s="21" t="s">
         <v>166</v>
       </c>
@@ -12197,7 +12167,7 @@
       </c>
       <c r="I279" s="23"/>
     </row>
-    <row r="280" spans="1:9" ht="29" hidden="1">
+    <row r="280" spans="1:9" ht="30" hidden="1">
       <c r="A280" s="21" t="s">
         <v>167</v>
       </c>
@@ -12222,7 +12192,7 @@
       </c>
       <c r="I280" s="23"/>
     </row>
-    <row r="281" spans="1:9" ht="29" hidden="1">
+    <row r="281" spans="1:9" ht="30" hidden="1">
       <c r="A281" s="21" t="s">
         <v>168</v>
       </c>
@@ -12247,7 +12217,7 @@
       </c>
       <c r="I281" s="23"/>
     </row>
-    <row r="282" spans="1:9" ht="29" hidden="1">
+    <row r="282" spans="1:9" ht="30" hidden="1">
       <c r="A282" s="21" t="s">
         <v>169</v>
       </c>
@@ -12272,7 +12242,7 @@
       </c>
       <c r="I282" s="23"/>
     </row>
-    <row r="283" spans="1:9" ht="29" hidden="1">
+    <row r="283" spans="1:9" hidden="1">
       <c r="A283" s="21" t="s">
         <v>170</v>
       </c>
@@ -12297,7 +12267,7 @@
       </c>
       <c r="I283" s="23"/>
     </row>
-    <row r="284" spans="1:9" ht="29" hidden="1">
+    <row r="284" spans="1:9" ht="30" hidden="1">
       <c r="A284" s="21" t="s">
         <v>171</v>
       </c>
@@ -12322,7 +12292,7 @@
       </c>
       <c r="I284" s="23"/>
     </row>
-    <row r="285" spans="1:9" ht="29" hidden="1">
+    <row r="285" spans="1:9" hidden="1">
       <c r="A285" s="21" t="s">
         <v>172</v>
       </c>
@@ -12349,7 +12319,7 @@
       </c>
       <c r="I285" s="23"/>
     </row>
-    <row r="286" spans="1:9" ht="29" hidden="1">
+    <row r="286" spans="1:9" hidden="1">
       <c r="A286" s="21" t="s">
         <v>173</v>
       </c>
@@ -12376,7 +12346,7 @@
       </c>
       <c r="I286" s="23"/>
     </row>
-    <row r="287" spans="1:9" ht="43.5" hidden="1">
+    <row r="287" spans="1:9" ht="45" hidden="1">
       <c r="A287" s="21" t="s">
         <v>174</v>
       </c>
@@ -12401,7 +12371,7 @@
       </c>
       <c r="I287" s="23"/>
     </row>
-    <row r="288" spans="1:9" ht="43.5" hidden="1">
+    <row r="288" spans="1:9" ht="30" hidden="1">
       <c r="A288" s="21" t="s">
         <v>175</v>
       </c>
@@ -12426,7 +12396,7 @@
       </c>
       <c r="I288" s="23"/>
     </row>
-    <row r="289" spans="1:9" ht="348" hidden="1">
+    <row r="289" spans="1:9" ht="360" hidden="1">
       <c r="A289" s="21" t="s">
         <v>176</v>
       </c>
@@ -12451,7 +12421,7 @@
       </c>
       <c r="I289" s="23"/>
     </row>
-    <row r="290" spans="1:9" ht="43.5" hidden="1">
+    <row r="290" spans="1:9" ht="45" hidden="1">
       <c r="A290" s="21" t="s">
         <v>177</v>
       </c>
@@ -12476,7 +12446,7 @@
       </c>
       <c r="I290" s="23"/>
     </row>
-    <row r="291" spans="1:9" ht="29" hidden="1">
+    <row r="291" spans="1:9" ht="30" hidden="1">
       <c r="A291" s="21" t="s">
         <v>178</v>
       </c>
@@ -12501,7 +12471,7 @@
       </c>
       <c r="I291" s="23"/>
     </row>
-    <row r="292" spans="1:9" ht="43.5" hidden="1">
+    <row r="292" spans="1:9" ht="45" hidden="1">
       <c r="A292" s="21" t="s">
         <v>179</v>
       </c>
@@ -12551,7 +12521,7 @@
       </c>
       <c r="I293" s="23"/>
     </row>
-    <row r="294" spans="1:9" ht="29" hidden="1">
+    <row r="294" spans="1:9" ht="30" hidden="1">
       <c r="A294" s="21" t="s">
         <v>181</v>
       </c>
@@ -12576,7 +12546,7 @@
       </c>
       <c r="I294" s="23"/>
     </row>
-    <row r="295" spans="1:9" ht="43.5" hidden="1">
+    <row r="295" spans="1:9" ht="30" hidden="1">
       <c r="A295" s="21" t="s">
         <v>182</v>
       </c>
@@ -12601,7 +12571,7 @@
       </c>
       <c r="I295" s="23"/>
     </row>
-    <row r="296" spans="1:9" ht="29" hidden="1">
+    <row r="296" spans="1:9" ht="30" hidden="1">
       <c r="A296" s="21" t="s">
         <v>183</v>
       </c>
@@ -12628,7 +12598,7 @@
       </c>
       <c r="I296" s="23"/>
     </row>
-    <row r="297" spans="1:9" ht="43.5" hidden="1">
+    <row r="297" spans="1:9" ht="30" hidden="1">
       <c r="A297" s="21" t="s">
         <v>184</v>
       </c>
@@ -12655,7 +12625,7 @@
       </c>
       <c r="I297" s="23"/>
     </row>
-    <row r="298" spans="1:9" ht="29" hidden="1">
+    <row r="298" spans="1:9" ht="30" hidden="1">
       <c r="A298" s="21" t="s">
         <v>185</v>
       </c>
@@ -12680,7 +12650,7 @@
       </c>
       <c r="I298" s="23"/>
     </row>
-    <row r="299" spans="1:9" ht="29" hidden="1">
+    <row r="299" spans="1:9" ht="30" hidden="1">
       <c r="A299" s="21" t="s">
         <v>186</v>
       </c>
@@ -12705,7 +12675,7 @@
       </c>
       <c r="I299" s="23"/>
     </row>
-    <row r="300" spans="1:9" ht="29" hidden="1">
+    <row r="300" spans="1:9" ht="30" hidden="1">
       <c r="A300" s="21" t="s">
         <v>187</v>
       </c>
@@ -12755,7 +12725,7 @@
       </c>
       <c r="I301" s="23"/>
     </row>
-    <row r="302" spans="1:9" ht="29" hidden="1">
+    <row r="302" spans="1:9" ht="30" hidden="1">
       <c r="A302" s="21" t="s">
         <v>345</v>
       </c>
@@ -12780,7 +12750,7 @@
       </c>
       <c r="I302" s="23"/>
     </row>
-    <row r="303" spans="1:9" ht="29" hidden="1">
+    <row r="303" spans="1:9" ht="30" hidden="1">
       <c r="A303" s="21" t="s">
         <v>346</v>
       </c>
@@ -12805,7 +12775,7 @@
       </c>
       <c r="I303" s="23"/>
     </row>
-    <row r="304" spans="1:9" ht="130.5" hidden="1">
+    <row r="304" spans="1:9" ht="120" hidden="1">
       <c r="A304" s="21" t="s">
         <v>347</v>
       </c>
@@ -12830,7 +12800,7 @@
       </c>
       <c r="I304" s="23"/>
     </row>
-    <row r="305" spans="1:9" ht="29" hidden="1">
+    <row r="305" spans="1:9" ht="30" hidden="1">
       <c r="A305" s="21" t="s">
         <v>307</v>
       </c>
@@ -12855,7 +12825,7 @@
       </c>
       <c r="I305" s="23"/>
     </row>
-    <row r="306" spans="1:9" ht="29" hidden="1">
+    <row r="306" spans="1:9" ht="30" hidden="1">
       <c r="A306" s="21" t="s">
         <v>308</v>
       </c>
@@ -12905,7 +12875,7 @@
       </c>
       <c r="I307" s="23"/>
     </row>
-    <row r="308" spans="1:9" ht="43.5" hidden="1">
+    <row r="308" spans="1:9" ht="45" hidden="1">
       <c r="A308" s="21" t="s">
         <v>310</v>
       </c>
@@ -12930,7 +12900,7 @@
       </c>
       <c r="I308" s="23"/>
     </row>
-    <row r="309" spans="1:9" ht="29" hidden="1">
+    <row r="309" spans="1:9" ht="30" hidden="1">
       <c r="A309" s="21" t="s">
         <v>311</v>
       </c>
@@ -12955,7 +12925,7 @@
       </c>
       <c r="I309" s="23"/>
     </row>
-    <row r="310" spans="1:9" ht="159.5" hidden="1">
+    <row r="310" spans="1:9" ht="150" hidden="1">
       <c r="A310" s="21" t="s">
         <v>312</v>
       </c>
@@ -12982,7 +12952,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="29" hidden="1">
+    <row r="311" spans="1:9" ht="30" hidden="1">
       <c r="A311" s="14" t="s">
         <v>313</v>
       </c>
@@ -13009,7 +12979,7 @@
       </c>
       <c r="I311" s="23"/>
     </row>
-    <row r="312" spans="1:9" ht="29" hidden="1">
+    <row r="312" spans="1:9" ht="30" hidden="1">
       <c r="A312" s="21" t="s">
         <v>314</v>
       </c>
@@ -13036,7 +13006,7 @@
       </c>
       <c r="I312" s="23"/>
     </row>
-    <row r="313" spans="1:9" ht="29" hidden="1">
+    <row r="313" spans="1:9" ht="30" hidden="1">
       <c r="A313" s="21" t="s">
         <v>315</v>
       </c>
@@ -13063,7 +13033,7 @@
       </c>
       <c r="I313" s="23"/>
     </row>
-    <row r="314" spans="1:9" ht="43.5" hidden="1">
+    <row r="314" spans="1:9" ht="45" hidden="1">
       <c r="A314" s="21" t="s">
         <v>316</v>
       </c>
@@ -13090,7 +13060,7 @@
       </c>
       <c r="I314" s="23"/>
     </row>
-    <row r="315" spans="1:9" ht="43.5" hidden="1">
+    <row r="315" spans="1:9" ht="45" hidden="1">
       <c r="A315" s="14" t="s">
         <v>317</v>
       </c>
@@ -13117,7 +13087,7 @@
       </c>
       <c r="I315" s="23"/>
     </row>
-    <row r="316" spans="1:9" ht="43.5" hidden="1">
+    <row r="316" spans="1:9" ht="45" hidden="1">
       <c r="A316" s="21" t="s">
         <v>318</v>
       </c>
@@ -13144,7 +13114,7 @@
       </c>
       <c r="I316" s="23"/>
     </row>
-    <row r="317" spans="1:9" ht="29" hidden="1">
+    <row r="317" spans="1:9" ht="30" hidden="1">
       <c r="A317" s="21" t="s">
         <v>319</v>
       </c>
@@ -13171,7 +13141,7 @@
       </c>
       <c r="I317" s="23"/>
     </row>
-    <row r="318" spans="1:9" ht="29" hidden="1">
+    <row r="318" spans="1:9" ht="30" hidden="1">
       <c r="A318" s="21" t="s">
         <v>320</v>
       </c>
@@ -13198,7 +13168,7 @@
       </c>
       <c r="I318" s="23"/>
     </row>
-    <row r="319" spans="1:9" ht="29" hidden="1">
+    <row r="319" spans="1:9" ht="30" hidden="1">
       <c r="A319" s="21" t="s">
         <v>321</v>
       </c>
@@ -13223,7 +13193,7 @@
       </c>
       <c r="I319" s="23"/>
     </row>
-    <row r="320" spans="1:9" ht="29" hidden="1">
+    <row r="320" spans="1:9" ht="30" hidden="1">
       <c r="A320" s="21" t="s">
         <v>322</v>
       </c>
@@ -13273,7 +13243,7 @@
       </c>
       <c r="I321" s="23"/>
     </row>
-    <row r="322" spans="1:9" ht="29" hidden="1">
+    <row r="322" spans="1:9" ht="30" hidden="1">
       <c r="A322" s="21" t="s">
         <v>324</v>
       </c>
@@ -13298,7 +13268,7 @@
       </c>
       <c r="I322" s="23"/>
     </row>
-    <row r="323" spans="1:9" ht="43.5" hidden="1">
+    <row r="323" spans="1:9" ht="30" hidden="1">
       <c r="A323" s="21" t="s">
         <v>325</v>
       </c>
@@ -13348,7 +13318,7 @@
       </c>
       <c r="I324" s="23"/>
     </row>
-    <row r="325" spans="1:9" ht="29" hidden="1">
+    <row r="325" spans="1:9" hidden="1">
       <c r="A325" s="14" t="s">
         <v>327</v>
       </c>
@@ -13375,7 +13345,7 @@
       </c>
       <c r="I325" s="13"/>
     </row>
-    <row r="326" spans="1:9" ht="29" hidden="1">
+    <row r="326" spans="1:9" ht="30" hidden="1">
       <c r="A326" s="21" t="s">
         <v>328</v>
       </c>
@@ -13402,7 +13372,7 @@
       </c>
       <c r="I326" s="23"/>
     </row>
-    <row r="327" spans="1:9" ht="29" hidden="1">
+    <row r="327" spans="1:9" ht="30" hidden="1">
       <c r="A327" s="21" t="s">
         <v>329</v>
       </c>
@@ -13427,7 +13397,7 @@
       </c>
       <c r="I327" s="23"/>
     </row>
-    <row r="328" spans="1:9" ht="29" hidden="1">
+    <row r="328" spans="1:9" ht="30" hidden="1">
       <c r="A328" s="21" t="s">
         <v>330</v>
       </c>
@@ -13452,7 +13422,7 @@
       </c>
       <c r="I328" s="23"/>
     </row>
-    <row r="329" spans="1:9" ht="29" hidden="1">
+    <row r="329" spans="1:9" hidden="1">
       <c r="A329" s="21" t="s">
         <v>331</v>
       </c>
@@ -13479,7 +13449,7 @@
       </c>
       <c r="I329" s="23"/>
     </row>
-    <row r="330" spans="1:9" ht="29" hidden="1">
+    <row r="330" spans="1:9" ht="30" hidden="1">
       <c r="A330" s="21" t="s">
         <v>332</v>
       </c>
@@ -13531,7 +13501,7 @@
       </c>
       <c r="I331" s="13"/>
     </row>
-    <row r="332" spans="1:9" ht="29" hidden="1">
+    <row r="332" spans="1:9" hidden="1">
       <c r="A332" s="14" t="s">
         <v>334</v>
       </c>
@@ -13558,7 +13528,7 @@
       </c>
       <c r="I332" s="23"/>
     </row>
-    <row r="333" spans="1:9" ht="29" hidden="1">
+    <row r="333" spans="1:9" ht="30" hidden="1">
       <c r="A333" s="21" t="s">
         <v>335</v>
       </c>
@@ -13585,7 +13555,7 @@
       </c>
       <c r="I333" s="23"/>
     </row>
-    <row r="334" spans="1:9" ht="29" hidden="1">
+    <row r="334" spans="1:9" ht="30" hidden="1">
       <c r="A334" s="21" t="s">
         <v>336</v>
       </c>
@@ -13610,7 +13580,7 @@
       </c>
       <c r="I334" s="23"/>
     </row>
-    <row r="335" spans="1:9" ht="29" hidden="1">
+    <row r="335" spans="1:9" ht="30" hidden="1">
       <c r="A335" s="14" t="s">
         <v>337</v>
       </c>
@@ -13635,7 +13605,7 @@
       </c>
       <c r="I335" s="23"/>
     </row>
-    <row r="336" spans="1:9" ht="43.5" hidden="1">
+    <row r="336" spans="1:9" ht="45" hidden="1">
       <c r="A336" s="21" t="s">
         <v>338</v>
       </c>
@@ -13662,7 +13632,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="29" hidden="1">
+    <row r="337" spans="1:9" ht="30" hidden="1">
       <c r="A337" s="21" t="s">
         <v>339</v>
       </c>
@@ -13689,7 +13659,7 @@
       </c>
       <c r="I337" s="23"/>
     </row>
-    <row r="338" spans="1:9" ht="29" hidden="1">
+    <row r="338" spans="1:9" ht="30" hidden="1">
       <c r="A338" s="21" t="s">
         <v>340</v>
       </c>
@@ -13714,7 +13684,7 @@
       </c>
       <c r="I338" s="23"/>
     </row>
-    <row r="339" spans="1:9" ht="29" hidden="1">
+    <row r="339" spans="1:9" ht="30" hidden="1">
       <c r="A339" s="21" t="s">
         <v>341</v>
       </c>
@@ -13764,7 +13734,7 @@
       </c>
       <c r="I340" s="13"/>
     </row>
-    <row r="341" spans="1:9" ht="29" hidden="1">
+    <row r="341" spans="1:9" ht="30" hidden="1">
       <c r="A341" s="14" t="s">
         <v>343</v>
       </c>
@@ -13793,7 +13763,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="29" hidden="1">
+    <row r="342" spans="1:9" ht="30" hidden="1">
       <c r="A342" s="21" t="s">
         <v>344</v>
       </c>
@@ -13822,7 +13792,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="29" hidden="1">
+    <row r="343" spans="1:9" ht="30" hidden="1">
       <c r="A343" s="14" t="s">
         <v>900</v>
       </c>
@@ -13847,7 +13817,7 @@
       </c>
       <c r="I343" s="42"/>
     </row>
-    <row r="344" spans="1:9" ht="29" hidden="1">
+    <row r="344" spans="1:9" ht="30" hidden="1">
       <c r="A344" s="14" t="s">
         <v>901</v>
       </c>
@@ -13872,7 +13842,7 @@
       </c>
       <c r="I344" s="42"/>
     </row>
-    <row r="345" spans="1:9" ht="29" hidden="1">
+    <row r="345" spans="1:9" ht="30" hidden="1">
       <c r="A345" s="14" t="s">
         <v>902</v>
       </c>
@@ -13897,7 +13867,7 @@
       </c>
       <c r="I345" s="42"/>
     </row>
-    <row r="346" spans="1:9" ht="43.5" hidden="1">
+    <row r="346" spans="1:9" ht="45" hidden="1">
       <c r="A346" s="21" t="s">
         <v>352</v>
       </c>
@@ -13922,7 +13892,7 @@
       </c>
       <c r="I346" s="23"/>
     </row>
-    <row r="347" spans="1:9" ht="29" hidden="1">
+    <row r="347" spans="1:9" ht="30" hidden="1">
       <c r="A347" s="21" t="s">
         <v>353</v>
       </c>
@@ -13947,7 +13917,7 @@
       </c>
       <c r="I347" s="23"/>
     </row>
-    <row r="348" spans="1:9" ht="29" hidden="1">
+    <row r="348" spans="1:9" ht="30" hidden="1">
       <c r="A348" s="21" t="s">
         <v>354</v>
       </c>
@@ -13972,7 +13942,7 @@
       </c>
       <c r="I348" s="23"/>
     </row>
-    <row r="349" spans="1:9" ht="217.5" hidden="1">
+    <row r="349" spans="1:9" ht="210" hidden="1">
       <c r="A349" s="21" t="s">
         <v>355</v>
       </c>
@@ -13997,7 +13967,7 @@
       </c>
       <c r="I349" s="23"/>
     </row>
-    <row r="350" spans="1:9" ht="203" hidden="1">
+    <row r="350" spans="1:9" ht="210" hidden="1">
       <c r="A350" s="21" t="s">
         <v>356</v>
       </c>
@@ -14022,7 +13992,7 @@
       </c>
       <c r="I350" s="23"/>
     </row>
-    <row r="351" spans="1:9" ht="43.5" hidden="1">
+    <row r="351" spans="1:9" ht="30" hidden="1">
       <c r="A351" s="21" t="s">
         <v>357</v>
       </c>
@@ -14047,7 +14017,7 @@
       </c>
       <c r="I351" s="23"/>
     </row>
-    <row r="352" spans="1:9" ht="29" hidden="1">
+    <row r="352" spans="1:9" ht="30" hidden="1">
       <c r="A352" s="14" t="s">
         <v>358</v>
       </c>
@@ -14072,7 +14042,7 @@
       </c>
       <c r="I352" s="23"/>
     </row>
-    <row r="353" spans="1:9" ht="29" hidden="1">
+    <row r="353" spans="1:9" ht="30" hidden="1">
       <c r="A353" s="21" t="s">
         <v>359</v>
       </c>
@@ -14097,7 +14067,7 @@
       </c>
       <c r="I353" s="23"/>
     </row>
-    <row r="354" spans="1:9" ht="43.5" hidden="1">
+    <row r="354" spans="1:9" ht="45" hidden="1">
       <c r="A354" s="14" t="s">
         <v>360</v>
       </c>
@@ -14122,7 +14092,7 @@
       </c>
       <c r="I354" s="23"/>
     </row>
-    <row r="355" spans="1:9" ht="29" hidden="1">
+    <row r="355" spans="1:9" ht="30" hidden="1">
       <c r="A355" s="21" t="s">
         <v>361</v>
       </c>
@@ -14147,7 +14117,7 @@
       </c>
       <c r="I355" s="23"/>
     </row>
-    <row r="356" spans="1:9" ht="43.5" hidden="1">
+    <row r="356" spans="1:9" ht="45" hidden="1">
       <c r="A356" s="21" t="s">
         <v>362</v>
       </c>
@@ -14176,7 +14146,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="43.5" hidden="1">
+    <row r="357" spans="1:9" ht="45" hidden="1">
       <c r="A357" s="21" t="s">
         <v>363</v>
       </c>
@@ -14205,7 +14175,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="43.5" hidden="1">
+    <row r="358" spans="1:9" ht="45" hidden="1">
       <c r="A358" s="21" t="s">
         <v>364</v>
       </c>
@@ -14234,7 +14204,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="43.5" hidden="1">
+    <row r="359" spans="1:9" ht="30" hidden="1">
       <c r="A359" s="14" t="s">
         <v>832</v>
       </c>
@@ -14261,7 +14231,7 @@
       </c>
       <c r="I359" s="42"/>
     </row>
-    <row r="360" spans="1:9" ht="43.5" hidden="1">
+    <row r="360" spans="1:9" ht="45" hidden="1">
       <c r="A360" s="14" t="s">
         <v>833</v>
       </c>
@@ -14290,7 +14260,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="29" hidden="1">
+    <row r="361" spans="1:9" ht="30" hidden="1">
       <c r="A361" s="14" t="s">
         <v>834</v>
       </c>
@@ -14317,7 +14287,7 @@
       </c>
       <c r="I361" s="42"/>
     </row>
-    <row r="362" spans="1:9" ht="43.5" hidden="1">
+    <row r="362" spans="1:9" ht="45" hidden="1">
       <c r="A362" s="14" t="s">
         <v>835</v>
       </c>
@@ -14346,7 +14316,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="43.5" hidden="1">
+    <row r="363" spans="1:9" ht="30" hidden="1">
       <c r="A363" s="14" t="s">
         <v>862</v>
       </c>
@@ -14373,7 +14343,7 @@
       </c>
       <c r="I363" s="42"/>
     </row>
-    <row r="364" spans="1:9" ht="43.5" hidden="1">
+    <row r="364" spans="1:9" ht="45" hidden="1">
       <c r="A364" s="14" t="s">
         <v>863</v>
       </c>
@@ -14402,7 +14372,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="43.5" hidden="1">
+    <row r="365" spans="1:9" ht="30" hidden="1">
       <c r="A365" s="14" t="s">
         <v>864</v>
       </c>
@@ -14429,7 +14399,7 @@
       </c>
       <c r="I365" s="42"/>
     </row>
-    <row r="366" spans="1:9" ht="43.5" hidden="1">
+    <row r="366" spans="1:9" ht="45" hidden="1">
       <c r="A366" s="14" t="s">
         <v>865</v>
       </c>
@@ -14458,7 +14428,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="43.5" hidden="1">
+    <row r="367" spans="1:9" ht="30" hidden="1">
       <c r="A367" s="14" t="s">
         <v>836</v>
       </c>
@@ -14485,7 +14455,7 @@
       </c>
       <c r="I367" s="42"/>
     </row>
-    <row r="368" spans="1:9" ht="43.5" hidden="1">
+    <row r="368" spans="1:9" ht="45" hidden="1">
       <c r="A368" s="14" t="s">
         <v>837</v>
       </c>
@@ -14514,7 +14484,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="29" hidden="1">
+    <row r="369" spans="1:9" ht="30" hidden="1">
       <c r="A369" s="14" t="s">
         <v>838</v>
       </c>
@@ -14541,7 +14511,7 @@
       </c>
       <c r="I369" s="42"/>
     </row>
-    <row r="370" spans="1:9" ht="43.5" hidden="1">
+    <row r="370" spans="1:9" ht="45" hidden="1">
       <c r="A370" s="14" t="s">
         <v>839</v>
       </c>
@@ -14570,7 +14540,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="72.5" hidden="1">
+    <row r="371" spans="1:9" ht="60" hidden="1">
       <c r="A371" s="21" t="s">
         <v>365</v>
       </c>
@@ -14597,7 +14567,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="58" hidden="1">
+    <row r="372" spans="1:9" ht="45" hidden="1">
       <c r="A372" s="21" t="s">
         <v>366</v>
       </c>
@@ -14624,7 +14594,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="58" hidden="1">
+    <row r="373" spans="1:9" ht="45" hidden="1">
       <c r="A373" s="21" t="s">
         <v>367</v>
       </c>
@@ -14651,7 +14621,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="58" hidden="1">
+    <row r="374" spans="1:9" ht="45" hidden="1">
       <c r="A374" s="21" t="s">
         <v>368</v>
       </c>
@@ -14703,7 +14673,7 @@
       </c>
       <c r="I375" s="23"/>
     </row>
-    <row r="376" spans="1:9" ht="29" hidden="1">
+    <row r="376" spans="1:9" ht="30" hidden="1">
       <c r="A376" s="21" t="s">
         <v>370</v>
       </c>
@@ -14728,7 +14698,7 @@
       </c>
       <c r="I376" s="23"/>
     </row>
-    <row r="377" spans="1:9" ht="29" hidden="1">
+    <row r="377" spans="1:9" ht="30" hidden="1">
       <c r="A377" s="21" t="s">
         <v>371</v>
       </c>
@@ -14778,7 +14748,7 @@
       </c>
       <c r="I378" s="23"/>
     </row>
-    <row r="379" spans="1:9" ht="29" hidden="1">
+    <row r="379" spans="1:9" ht="30" hidden="1">
       <c r="A379" s="21" t="s">
         <v>373</v>
       </c>
@@ -14803,7 +14773,7 @@
       </c>
       <c r="I379" s="23"/>
     </row>
-    <row r="380" spans="1:9" ht="130.5" hidden="1">
+    <row r="380" spans="1:9" ht="135" hidden="1">
       <c r="A380" s="21" t="s">
         <v>374</v>
       </c>
@@ -14828,7 +14798,7 @@
       </c>
       <c r="I380" s="23"/>
     </row>
-    <row r="381" spans="1:9" ht="29" hidden="1">
+    <row r="381" spans="1:9" ht="30" hidden="1">
       <c r="A381" s="21" t="s">
         <v>375</v>
       </c>
@@ -14853,7 +14823,7 @@
       </c>
       <c r="I381" s="23"/>
     </row>
-    <row r="382" spans="1:9" ht="246.5" hidden="1">
+    <row r="382" spans="1:9" ht="255" hidden="1">
       <c r="A382" s="21" t="s">
         <v>376</v>
       </c>
@@ -14878,7 +14848,7 @@
       </c>
       <c r="I382" s="23"/>
     </row>
-    <row r="383" spans="1:9" ht="43.5" hidden="1">
+    <row r="383" spans="1:9" ht="45" hidden="1">
       <c r="A383" s="21" t="s">
         <v>377</v>
       </c>
@@ -14905,7 +14875,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="43.5" hidden="1">
+    <row r="384" spans="1:9" ht="45" hidden="1">
       <c r="A384" s="21" t="s">
         <v>378</v>
       </c>
@@ -14932,7 +14902,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="29" hidden="1">
+    <row r="385" spans="1:9" ht="30" hidden="1">
       <c r="A385" s="21" t="s">
         <v>379</v>
       </c>
@@ -14959,7 +14929,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="29" hidden="1">
+    <row r="386" spans="1:9" ht="30" hidden="1">
       <c r="A386" s="21" t="s">
         <v>380</v>
       </c>
@@ -14986,7 +14956,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="29" hidden="1">
+    <row r="387" spans="1:9" ht="30" hidden="1">
       <c r="A387" s="21" t="s">
         <v>381</v>
       </c>
@@ -15013,7 +14983,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="43.5" hidden="1">
+    <row r="388" spans="1:9" ht="45" hidden="1">
       <c r="A388" s="21" t="s">
         <v>382</v>
       </c>
@@ -15040,7 +15010,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="58" hidden="1">
+    <row r="389" spans="1:9" ht="45" hidden="1">
       <c r="A389" s="21" t="s">
         <v>383</v>
       </c>
@@ -15117,7 +15087,7 @@
       </c>
       <c r="I391" s="23"/>
     </row>
-    <row r="392" spans="1:9" ht="58" hidden="1">
+    <row r="392" spans="1:9" ht="60" hidden="1">
       <c r="A392" s="21" t="s">
         <v>386</v>
       </c>
@@ -15142,7 +15112,7 @@
       </c>
       <c r="I392" s="23"/>
     </row>
-    <row r="393" spans="1:9" ht="348" hidden="1">
+    <row r="393" spans="1:9" ht="360" hidden="1">
       <c r="A393" s="21" t="s">
         <v>387</v>
       </c>
@@ -15167,7 +15137,7 @@
       </c>
       <c r="I393" s="23"/>
     </row>
-    <row r="394" spans="1:9" ht="43.5" hidden="1">
+    <row r="394" spans="1:9" ht="30" hidden="1">
       <c r="A394" s="21" t="s">
         <v>388</v>
       </c>
@@ -15215,78 +15185,54 @@
     <mergeCell ref="B17:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A375:B375 A378:B378 A376:I377 D375:I375 A379:I394 D378:I378 I367:I394 A20:I374">
-    <cfRule type="expression" dxfId="36" priority="77">
+  <conditionalFormatting sqref="A20:I374 I367:I394 A375:B375 D375:I375 A376:I377 A378:B378 D378:I378 A379:I394">
+    <cfRule type="expression" dxfId="13" priority="31">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="32">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="33">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="78">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C375">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="85">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A375:B375 A378:B378 A376:I377 D375:I375 A379:I394 D378:I378 I367:I394 A20:I374">
-    <cfRule type="expression" dxfId="33" priority="31">
+  <conditionalFormatting sqref="C378">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
+    <cfRule type="expression" dxfId="4" priority="8">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
+    <cfRule type="expression" dxfId="3" priority="9">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F394">
-    <cfRule type="expression" dxfId="30" priority="37">
+    <cfRule type="expression" dxfId="1" priority="37">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="38">
+    <cfRule type="expression" dxfId="0" priority="38">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C378">
-    <cfRule type="expression" dxfId="28" priority="10">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="11">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="12">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C378">
-    <cfRule type="expression" dxfId="25" priority="7">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="8">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="9">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C375">
-    <cfRule type="expression" dxfId="22" priority="4">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="5">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="6">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C375">
-    <cfRule type="expression" dxfId="19" priority="1">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="2">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="3">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -15323,21 +15269,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -15386,29 +15317,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15423,6 +15347,28 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{923F65C5-DEAB-400B-AA1F-124F40EE10AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
